--- a/result/t28/summary.xlsx
+++ b/result/t28/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hirotake_ito/Documents/project/saitama2017/rae/result/t28/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s13592/Documents/project/other/rae/result/t28/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036FAA78-FAB0-7E41-A347-91CDF70FC507}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C076B8-6F6C-4048-B23E-15235B8A5D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="25000" windowHeight="14400" activeTab="2" xr2:uid="{933C5F32-4EC9-204A-B359-24190608EF38}"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="25000" windowHeight="14400" xr2:uid="{933C5F32-4EC9-204A-B359-24190608EF38}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -18,10 +18,21 @@
     <sheet name="summary_glance" sheetId="4" r:id="rId3"/>
     <sheet name="summary_tidy" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -753,9 +764,6 @@
     <t>relative_age</t>
   </si>
   <si>
-    <t>Relative age</t>
-  </si>
-  <si>
     <t>is_mar</t>
   </si>
   <si>
@@ -1056,6 +1064,10 @@
   </si>
   <si>
     <t>\# of books: 0 \textasciitilde{} 10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Age within Grade (Months)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1148,7 +1160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,9 +1179,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1187,12 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1522,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82D13B4-D7B2-3142-9363-E89708B146D0}">
   <dimension ref="A3:Q102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="47" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="47" workbookViewId="0">
+      <selection activeCell="X65" sqref="X65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1533,14 +1536,14 @@
     <col min="6" max="6" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="7" max="8" width="10.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="15.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="18.140625" style="10" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="10"/>
+    <col min="10" max="10" width="18.140625" style="9" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="9"/>
     <col min="13" max="13" width="22" style="2" customWidth="1"/>
     <col min="14" max="17" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="21" thickBot="1">
+    <row r="3" spans="5:13" ht="21" thickBot="1">
       <c r="E3" s="3" t="s">
         <v>230</v>
       </c>
@@ -1553,39 +1556,38 @@
       <c r="L3" s="4"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="64" thickTop="1">
-      <c r="A4" s="6"/>
-      <c r="E4" s="7" t="s">
+    <row r="4" spans="5:13" ht="64" thickTop="1">
+      <c r="E4" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="21">
+    <row r="5" spans="5:13" ht="21">
       <c r="E5" t="s">
         <v>231</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="21" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="6" spans="5:13" ht="21" hidden="1" outlineLevel="1" collapsed="1">
       <c r="E6" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G6,list!A:A,0),0)</f>
         <v>Japanese</v>
@@ -1603,24 +1605,24 @@
         <f>CONCATENATE($I$5,"_",G6,"_",H6)</f>
         <v>mean_test_zkokugo_level_4</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I6,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I6,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.189</v>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I6,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.189</v>
       </c>
-      <c r="M6" s="10" t="str">
+      <c r="M6" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I6,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="21" hidden="1" outlineLevel="1">
+    <row r="7" spans="5:13" ht="21" hidden="1" outlineLevel="1">
       <c r="F7" t="s">
         <v>178</v>
       </c>
@@ -1634,24 +1636,24 @@
         <f t="shared" ref="I7:I59" si="0">CONCATENATE($I$5,"_",G7,"_",H7)</f>
         <v>mean_test_zkokugo_level_5</v>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="J7" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I7,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K7" s="10" t="str">
+      <c r="K7" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I7,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.209</v>
       </c>
-      <c r="L7" s="10" t="str">
+      <c r="L7" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I7,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.209</v>
       </c>
-      <c r="M7" s="10" t="str">
+      <c r="M7" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I7,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21" hidden="1" outlineLevel="1">
+    <row r="8" spans="5:13" ht="21" hidden="1" outlineLevel="1">
       <c r="F8" t="s">
         <v>179</v>
       </c>
@@ -1665,24 +1667,24 @@
         <f t="shared" si="0"/>
         <v>mean_test_zkokugo_level_6</v>
       </c>
-      <c r="J8" s="10" t="str">
+      <c r="J8" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I8,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K8" s="10" t="str">
+      <c r="K8" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I8,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.167</v>
       </c>
-      <c r="L8" s="10" t="str">
+      <c r="L8" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I8,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.167</v>
       </c>
-      <c r="M8" s="10" t="str">
+      <c r="M8" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I8,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="21" hidden="1" outlineLevel="1">
+    <row r="9" spans="5:13" ht="21" hidden="1" outlineLevel="1">
       <c r="F9" t="s">
         <v>180</v>
       </c>
@@ -1696,24 +1698,24 @@
         <f t="shared" si="0"/>
         <v>mean_test_zkokugo_level_7</v>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="J9" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I9,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K9" s="10" t="str">
+      <c r="K9" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I9,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.148</v>
       </c>
-      <c r="L9" s="10" t="str">
+      <c r="L9" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I9,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.148</v>
       </c>
-      <c r="M9" s="10" t="str">
+      <c r="M9" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I9,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="21" hidden="1" outlineLevel="1">
+    <row r="10" spans="5:13" ht="21" hidden="1" outlineLevel="1">
       <c r="F10" t="s">
         <v>181</v>
       </c>
@@ -1727,2866 +1729,2846 @@
         <f t="shared" si="0"/>
         <v>mean_test_zkokugo_level_8</v>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I10,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K10" s="10" t="str">
+      <c r="K10" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I10,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.159</v>
       </c>
-      <c r="L10" s="10" t="str">
+      <c r="L10" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I10,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.159</v>
       </c>
-      <c r="M10" s="10" t="str">
+      <c r="M10" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I10,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="21" collapsed="1">
-      <c r="E11" s="6" t="str">
+    <row r="11" spans="5:13" ht="21" collapsed="1">
+      <c r="E11" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G11,list!A:A,0),0)</f>
         <v>Japanese</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" t="s">
         <v>182</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" t="s">
         <v>177</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="I11" s="6" t="str">
+      <c r="I11" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zkokugo_level_9</v>
       </c>
-      <c r="J11" s="14" t="str">
+      <c r="J11" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I11,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K11" s="14" t="str">
+      <c r="K11" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I11,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.187</v>
       </c>
-      <c r="L11" s="14" t="str">
+      <c r="L11" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I11,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.187</v>
       </c>
-      <c r="M11" s="14" t="str">
+      <c r="M11" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I11,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E12" s="6" t="str">
+    <row r="12" spans="5:13" ht="21" hidden="1" outlineLevel="1">
+      <c r="E12" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G12,list!A:A,0),0)</f>
         <v>Math</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" t="s">
         <v>176</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" t="s">
         <v>183</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="I12" s="6" t="str">
+      <c r="I12" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_4</v>
       </c>
-      <c r="J12" s="14" t="str">
+      <c r="J12" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I12,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K12" s="14" t="str">
+      <c r="K12" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I12,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.120</v>
       </c>
-      <c r="L12" s="14" t="str">
+      <c r="L12" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I12,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.120</v>
       </c>
-      <c r="M12" s="14" t="str">
+      <c r="M12" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I12,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
+    <row r="13" spans="5:13" ht="21" hidden="1" outlineLevel="1">
+      <c r="F13" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" t="s">
         <v>183</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13" s="6" t="str">
+      <c r="I13" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_5</v>
       </c>
-      <c r="J13" s="14" t="str">
+      <c r="J13" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I13,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K13" s="14" t="str">
+      <c r="K13" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I13,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.212</v>
       </c>
-      <c r="L13" s="14" t="str">
+      <c r="L13" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I13,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.212</v>
       </c>
-      <c r="M13" s="14" t="str">
+      <c r="M13" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I13,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+    <row r="14" spans="5:13" ht="21" hidden="1" outlineLevel="1">
+      <c r="F14" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>6</v>
       </c>
-      <c r="I14" s="6" t="str">
+      <c r="I14" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_6</v>
       </c>
-      <c r="J14" s="14" t="str">
+      <c r="J14" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I14,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K14" s="14" t="str">
+      <c r="K14" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I14,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.152</v>
       </c>
-      <c r="L14" s="14" t="str">
+      <c r="L14" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I14,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.152</v>
       </c>
-      <c r="M14" s="14" t="str">
+      <c r="M14" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I14,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
+    <row r="15" spans="5:13" ht="21" hidden="1" outlineLevel="1">
+      <c r="F15" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" t="s">
         <v>183</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>7</v>
       </c>
-      <c r="I15" s="6" t="str">
+      <c r="I15" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_7</v>
       </c>
-      <c r="J15" s="14" t="str">
+      <c r="J15" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I15,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K15" s="14" t="str">
+      <c r="K15" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I15,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.173</v>
       </c>
-      <c r="L15" s="14" t="str">
+      <c r="L15" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I15,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.173</v>
       </c>
-      <c r="M15" s="14" t="str">
+      <c r="M15" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I15,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
+    <row r="16" spans="5:13" ht="21" hidden="1" outlineLevel="1">
+      <c r="F16" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" t="s">
         <v>183</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>8</v>
       </c>
-      <c r="I16" s="6" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_8</v>
       </c>
-      <c r="J16" s="14" t="str">
+      <c r="J16" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I16,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K16" s="14" t="str">
+      <c r="K16" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I16,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.170</v>
       </c>
-      <c r="L16" s="14" t="str">
+      <c r="L16" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I16,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.170</v>
       </c>
-      <c r="M16" s="14" t="str">
+      <c r="M16" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I16,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="17" spans="5:13" ht="21" collapsed="1">
-      <c r="E17" s="6" t="str">
+      <c r="E17" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G17,list!A:A,0),0)</f>
         <v>Math</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" t="s">
         <v>183</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>9</v>
       </c>
-      <c r="I17" s="6" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_9</v>
       </c>
-      <c r="J17" s="14" t="str">
+      <c r="J17" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I17,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K17" s="14" t="str">
+      <c r="K17" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I17,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.223</v>
       </c>
-      <c r="L17" s="14" t="str">
+      <c r="L17" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I17,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.223</v>
       </c>
-      <c r="M17" s="14" t="str">
+      <c r="M17" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I17,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
     </row>
     <row r="18" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E18" s="6" t="str">
+      <c r="E18" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G18,list!A:A,0),0)</f>
         <v>English</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" t="s">
         <v>176</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" t="s">
         <v>184</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>4</v>
       </c>
-      <c r="I18" s="6" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zeng_level_4</v>
       </c>
-      <c r="J18" s="14" t="str">
+      <c r="J18" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I18,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="K18" s="14" t="str">
+      <c r="K18" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I18,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="L18" s="14" t="str">
+      <c r="L18" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I18,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="M18" s="14" t="str">
+      <c r="M18" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I18,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
+      <c r="F19" t="s">
         <v>178</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" t="s">
         <v>184</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19">
         <v>5</v>
       </c>
-      <c r="I19" s="6" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zeng_level_5</v>
       </c>
-      <c r="J19" s="14" t="str">
+      <c r="J19" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I19,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="K19" s="14" t="str">
+      <c r="K19" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I19,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="L19" s="14" t="str">
+      <c r="L19" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I19,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="M19" s="14" t="str">
+      <c r="M19" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I19,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="F20" t="s">
         <v>179</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" t="s">
         <v>184</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20">
         <v>6</v>
       </c>
-      <c r="I20" s="6" t="str">
+      <c r="I20" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zeng_level_6</v>
       </c>
-      <c r="J20" s="14" t="str">
+      <c r="J20" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I20,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="K20" s="14" t="str">
+      <c r="K20" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I20,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="L20" s="14" t="str">
+      <c r="L20" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I20,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="M20" s="14" t="str">
+      <c r="M20" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I20,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E21" s="6"/>
-      <c r="F21" s="6" t="s">
+      <c r="F21" t="s">
         <v>180</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" t="s">
         <v>184</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <v>7</v>
       </c>
-      <c r="I21" s="6" t="str">
+      <c r="I21" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zeng_level_7</v>
       </c>
-      <c r="J21" s="14" t="str">
+      <c r="J21" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I21,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="K21" s="14" t="str">
+      <c r="K21" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I21,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="L21" s="14" t="str">
+      <c r="L21" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I21,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="M21" s="14" t="str">
+      <c r="M21" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I21,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="s">
+      <c r="F22" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" t="s">
         <v>184</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22">
         <v>8</v>
       </c>
-      <c r="I22" s="6" t="str">
+      <c r="I22" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zeng_level_8</v>
       </c>
-      <c r="J22" s="14" t="str">
+      <c r="J22" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I22,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K22" s="14" t="str">
+      <c r="K22" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I22,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.216</v>
       </c>
-      <c r="L22" s="14" t="str">
+      <c r="L22" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I22,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.216</v>
       </c>
-      <c r="M22" s="14" t="str">
+      <c r="M22" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I22,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="23" spans="5:13" ht="21" collapsed="1">
-      <c r="E23" s="6" t="str">
+      <c r="E23" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G23,list!A:A,0),0)</f>
         <v>English</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" t="s">
         <v>182</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" t="s">
         <v>184</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23">
         <v>9</v>
       </c>
-      <c r="I23" s="6" t="str">
+      <c r="I23" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zeng_level_9</v>
       </c>
-      <c r="J23" s="14" t="str">
+      <c r="J23" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I23,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K23" s="14" t="str">
+      <c r="K23" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I23,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.228</v>
       </c>
-      <c r="L23" s="14" t="str">
+      <c r="L23" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I23,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.228</v>
       </c>
-      <c r="M23" s="14" t="str">
+      <c r="M23" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I23,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
     </row>
     <row r="24" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E24" s="6" t="str">
+      <c r="E24" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G24,list!A:A,0),0)</f>
         <v>Self-control</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" t="s">
         <v>185</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24">
         <v>4</v>
       </c>
-      <c r="I24" s="6" t="str">
+      <c r="I24" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_4</v>
       </c>
-      <c r="J24" s="14" t="str">
+      <c r="J24" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I24,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K24" s="14" t="str">
+      <c r="K24" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I24,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.007</v>
       </c>
-      <c r="L24" s="14" t="str">
+      <c r="L24" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I24,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.007</v>
       </c>
-      <c r="M24" s="14" t="str">
+      <c r="M24" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I24,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="25" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E25" s="6"/>
-      <c r="F25" s="6" t="s">
+      <c r="F25" t="s">
         <v>178</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" t="s">
         <v>185</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="I25" s="6" t="str">
+      <c r="I25" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_5</v>
       </c>
-      <c r="J25" s="14" t="str">
+      <c r="J25" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I25,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K25" s="14" t="str">
+      <c r="K25" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I25,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.029</v>
       </c>
-      <c r="L25" s="14" t="str">
+      <c r="L25" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I25,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.029</v>
       </c>
-      <c r="M25" s="14" t="str">
+      <c r="M25" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I25,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="26" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E26" s="6"/>
-      <c r="F26" s="6" t="s">
+      <c r="F26" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26">
         <v>6</v>
       </c>
-      <c r="I26" s="6" t="str">
+      <c r="I26" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_6</v>
       </c>
-      <c r="J26" s="14" t="str">
+      <c r="J26" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I26,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K26" s="14" t="str">
+      <c r="K26" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I26,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.133</v>
       </c>
-      <c r="L26" s="14" t="str">
+      <c r="L26" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I26,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.133</v>
       </c>
-      <c r="M26" s="14" t="str">
+      <c r="M26" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I26,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="27" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="s">
+      <c r="F27" t="s">
         <v>180</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27">
         <v>7</v>
       </c>
-      <c r="I27" s="6" t="str">
+      <c r="I27" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_7</v>
       </c>
-      <c r="J27" s="14" t="str">
+      <c r="J27" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I27,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K27" s="14" t="str">
+      <c r="K27" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I27,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.160</v>
       </c>
-      <c r="L27" s="14" t="str">
+      <c r="L27" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I27,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.160</v>
       </c>
-      <c r="M27" s="14" t="str">
+      <c r="M27" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I27,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="28" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="F28" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" t="s">
         <v>185</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28">
         <v>8</v>
       </c>
-      <c r="I28" s="6" t="str">
+      <c r="I28" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_8</v>
       </c>
-      <c r="J28" s="14" t="str">
+      <c r="J28" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I28,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K28" s="14" t="str">
+      <c r="K28" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I28,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.182</v>
       </c>
-      <c r="L28" s="14" t="str">
+      <c r="L28" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I28,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.182</v>
       </c>
-      <c r="M28" s="14" t="str">
+      <c r="M28" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I28,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="29" spans="5:13" ht="21" collapsed="1">
-      <c r="E29" s="6" t="str">
+      <c r="E29" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G29,list!A:A,0),0)</f>
         <v>Self-control</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" t="s">
         <v>182</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" t="s">
         <v>185</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <v>9</v>
       </c>
-      <c r="I29" s="6" t="str">
+      <c r="I29" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_9</v>
       </c>
-      <c r="J29" s="14" t="str">
+      <c r="J29" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I29,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K29" s="14" t="str">
+      <c r="K29" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I29,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.298</v>
       </c>
-      <c r="L29" s="14" t="str">
+      <c r="L29" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I29,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.298</v>
       </c>
-      <c r="M29" s="14" t="str">
+      <c r="M29" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I29,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
     </row>
     <row r="30" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E30" s="6" t="str">
+      <c r="E30" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G30,list!A:A,0),0)</f>
         <v>Self-efficacy</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" t="s">
         <v>176</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" t="s">
         <v>186</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30">
         <v>4</v>
       </c>
-      <c r="I30" s="6" t="str">
+      <c r="I30" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfefficacy_4</v>
       </c>
-      <c r="J30" s="14" t="str">
+      <c r="J30" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I30,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="K30" s="14" t="str">
+      <c r="K30" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I30,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="L30" s="14" t="str">
+      <c r="L30" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I30,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="M30" s="14" t="str">
+      <c r="M30" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I30,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E31" s="6"/>
-      <c r="F31" s="6" t="s">
+      <c r="F31" t="s">
         <v>178</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" t="s">
         <v>186</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31">
         <v>5</v>
       </c>
-      <c r="I31" s="6" t="str">
+      <c r="I31" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfefficacy_5</v>
       </c>
-      <c r="J31" s="14" t="str">
+      <c r="J31" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I31,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K31" s="14" t="str">
+      <c r="K31" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I31,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.042</v>
       </c>
-      <c r="L31" s="14" t="str">
+      <c r="L31" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I31,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.042</v>
       </c>
-      <c r="M31" s="14" t="str">
+      <c r="M31" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I31,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="32" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E32" s="6"/>
-      <c r="F32" s="6" t="s">
+      <c r="F32" t="s">
         <v>179</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32">
         <v>6</v>
       </c>
-      <c r="I32" s="6" t="str">
+      <c r="I32" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfefficacy_6</v>
       </c>
-      <c r="J32" s="14" t="str">
+      <c r="J32" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I32,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K32" s="14" t="str">
+      <c r="K32" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I32,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.063</v>
       </c>
-      <c r="L32" s="14" t="str">
+      <c r="L32" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I32,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.063</v>
       </c>
-      <c r="M32" s="14" t="str">
+      <c r="M32" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I32,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="33" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E33" s="6"/>
-      <c r="F33" s="6" t="s">
+      <c r="F33" t="s">
         <v>180</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" t="s">
         <v>186</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33">
         <v>7</v>
       </c>
-      <c r="I33" s="6" t="str">
+      <c r="I33" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfefficacy_7</v>
       </c>
-      <c r="J33" s="14" t="str">
+      <c r="J33" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I33,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K33" s="14" t="str">
+      <c r="K33" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I33,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.074</v>
       </c>
-      <c r="L33" s="14" t="str">
+      <c r="L33" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I33,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.074</v>
       </c>
-      <c r="M33" s="14" t="str">
+      <c r="M33" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I33,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="34" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
+      <c r="F34" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34">
         <v>8</v>
       </c>
-      <c r="I34" s="6" t="str">
+      <c r="I34" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfefficacy_8</v>
       </c>
-      <c r="J34" s="14" t="str">
+      <c r="J34" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I34,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K34" s="14" t="str">
+      <c r="K34" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I34,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.036</v>
       </c>
-      <c r="L34" s="14" t="str">
+      <c r="L34" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I34,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.036</v>
       </c>
-      <c r="M34" s="14" t="str">
+      <c r="M34" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I34,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="35" spans="5:13" ht="21" collapsed="1">
-      <c r="E35" s="6" t="str">
+      <c r="E35" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G35,list!A:A,0),0)</f>
         <v>Self-efficacy</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" t="s">
         <v>182</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35">
         <v>9</v>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="I35" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zselfefficacy_9</v>
       </c>
-      <c r="J35" s="14" t="str">
+      <c r="J35" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I35,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K35" s="14" t="str">
+      <c r="K35" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I35,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.029</v>
       </c>
-      <c r="L35" s="14" t="str">
+      <c r="L35" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I35,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.029</v>
       </c>
-      <c r="M35" s="14" t="str">
+      <c r="M35" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I35,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.446</v>
       </c>
     </row>
     <row r="36" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E36" s="6" t="str">
+      <c r="E36" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G36,list!A:A,0),0)</f>
         <v>Conscientiousness</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" t="s">
         <v>176</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" t="s">
         <v>187</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36">
         <v>4</v>
       </c>
-      <c r="I36" s="6" t="str">
+      <c r="I36" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zdilligence_4</v>
       </c>
-      <c r="J36" s="14" t="str">
+      <c r="J36" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I36,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="K36" s="14" t="str">
+      <c r="K36" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I36,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="L36" s="14" t="str">
+      <c r="L36" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I36,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="M36" s="14" t="str">
+      <c r="M36" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I36,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E37" s="6"/>
-      <c r="F37" s="6" t="s">
+      <c r="F37" t="s">
         <v>178</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" t="s">
         <v>187</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37">
         <v>5</v>
       </c>
-      <c r="I37" s="6" t="str">
+      <c r="I37" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zdilligence_5</v>
       </c>
-      <c r="J37" s="14" t="str">
+      <c r="J37" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I37,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="K37" s="14" t="str">
+      <c r="K37" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I37,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="L37" s="14" t="str">
+      <c r="L37" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I37,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
-      <c r="M37" s="14" t="str">
+      <c r="M37" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I37,summary_glance!$AA:$AA,0),0),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E38" s="6"/>
-      <c r="F38" s="6" t="s">
+      <c r="F38" t="s">
         <v>179</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" t="s">
         <v>187</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38">
         <v>6</v>
       </c>
-      <c r="I38" s="6" t="str">
+      <c r="I38" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zdilligence_6</v>
       </c>
-      <c r="J38" s="14" t="str">
+      <c r="J38" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I38,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K38" s="14" t="str">
+      <c r="K38" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I38,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.045</v>
       </c>
-      <c r="L38" s="14" t="str">
+      <c r="L38" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I38,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.045</v>
       </c>
-      <c r="M38" s="14" t="str">
+      <c r="M38" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I38,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="39" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E39" s="6"/>
-      <c r="F39" s="6" t="s">
+      <c r="F39" t="s">
         <v>180</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" t="s">
         <v>187</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39">
         <v>7</v>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="I39" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zdilligence_7</v>
       </c>
-      <c r="J39" s="14" t="str">
+      <c r="J39" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I39,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K39" s="14" t="str">
+      <c r="K39" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I39,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.082</v>
       </c>
-      <c r="L39" s="14" t="str">
+      <c r="L39" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I39,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.082</v>
       </c>
-      <c r="M39" s="14" t="str">
+      <c r="M39" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I39,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="40" spans="5:13" ht="21" hidden="1" outlineLevel="1">
-      <c r="E40" s="6"/>
-      <c r="F40" s="6" t="s">
+      <c r="F40" t="s">
         <v>181</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" t="s">
         <v>187</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40">
         <v>8</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I40" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zdilligence_8</v>
       </c>
-      <c r="J40" s="14" t="str">
+      <c r="J40" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I40,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K40" s="14" t="str">
+      <c r="K40" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I40,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.118</v>
       </c>
-      <c r="L40" s="14" t="str">
+      <c r="L40" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I40,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.118</v>
       </c>
-      <c r="M40" s="14" t="str">
+      <c r="M40" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I40,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="41" spans="5:13" ht="21" collapsed="1">
-      <c r="E41" s="6" t="str">
+      <c r="E41" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G41,list!A:A,0),0)</f>
         <v>Conscientiousness</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" t="s">
         <v>182</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" t="s">
         <v>187</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41">
         <v>9</v>
       </c>
-      <c r="I41" s="6" t="str">
+      <c r="I41" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_zdilligence_9</v>
       </c>
-      <c r="J41" s="14" t="str">
+      <c r="J41" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I41,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K41" s="14" t="str">
+      <c r="K41" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I41,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.053</v>
       </c>
-      <c r="L41" s="14" t="str">
+      <c r="L41" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I41,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.053</v>
       </c>
-      <c r="M41" s="14" t="str">
+      <c r="M41" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I41,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.129</v>
       </c>
     </row>
     <row r="42" spans="5:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
-      <c r="E42" s="6" t="str">
+      <c r="E42" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G42,list!A:A,0),0)</f>
-        <v>Relative age</v>
-      </c>
-      <c r="F42" s="6" t="s">
+        <v>Age within Grade (Months)</v>
+      </c>
+      <c r="F42" t="s">
         <v>176</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42">
         <v>4</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I42" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_relative_age_4</v>
       </c>
-      <c r="J42" s="14" t="str">
+      <c r="J42" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I42,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.587</v>
       </c>
-      <c r="K42" s="14" t="str">
+      <c r="K42" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I42,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.572</v>
       </c>
-      <c r="L42" s="14" t="str">
+      <c r="L42" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I42,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.016</v>
       </c>
-      <c r="M42" s="14" t="str">
+      <c r="M42" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I42,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="43" spans="5:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
-      <c r="E43" s="6"/>
-      <c r="F43" s="6" t="s">
+      <c r="E43"/>
+      <c r="F43" t="s">
         <v>178</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43">
         <v>5</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I43" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_relative_age_5</v>
       </c>
-      <c r="J43" s="14" t="str">
+      <c r="J43" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I43,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.593</v>
       </c>
-      <c r="K43" s="14" t="str">
+      <c r="K43" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I43,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.554</v>
       </c>
-      <c r="L43" s="14" t="str">
+      <c r="L43" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I43,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.039</v>
       </c>
-      <c r="M43" s="14" t="str">
+      <c r="M43" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I43,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="44" spans="5:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
-      <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
+      <c r="E44"/>
+      <c r="F44" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44">
         <v>6</v>
       </c>
-      <c r="I44" s="6" t="str">
+      <c r="I44" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_relative_age_6</v>
       </c>
-      <c r="J44" s="14" t="str">
+      <c r="J44" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I44,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.594</v>
       </c>
-      <c r="K44" s="14" t="str">
+      <c r="K44" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I44,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.577</v>
       </c>
-      <c r="L44" s="14" t="str">
+      <c r="L44" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I44,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.017</v>
       </c>
-      <c r="M44" s="14" t="str">
+      <c r="M44" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I44,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="45" spans="5:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
-      <c r="E45" s="6"/>
-      <c r="F45" s="6" t="s">
+      <c r="E45"/>
+      <c r="F45" t="s">
         <v>180</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45">
         <v>7</v>
       </c>
-      <c r="I45" s="6" t="str">
+      <c r="I45" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_relative_age_7</v>
       </c>
-      <c r="J45" s="14" t="str">
+      <c r="J45" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I45,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.583</v>
       </c>
-      <c r="K45" s="14" t="str">
+      <c r="K45" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I45,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.552</v>
       </c>
-      <c r="L45" s="14" t="str">
+      <c r="L45" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I45,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.031</v>
       </c>
-      <c r="M45" s="14" t="str">
+      <c r="M45" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I45,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="46" spans="5:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
-      <c r="E46" s="6"/>
-      <c r="F46" s="6" t="s">
+      <c r="E46"/>
+      <c r="F46" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46">
         <v>8</v>
       </c>
-      <c r="I46" s="6" t="str">
+      <c r="I46" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_relative_age_8</v>
       </c>
-      <c r="J46" s="14" t="str">
+      <c r="J46" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I46,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.571</v>
       </c>
-      <c r="K46" s="14" t="str">
+      <c r="K46" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I46,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.545</v>
       </c>
-      <c r="L46" s="14" t="str">
+      <c r="L46" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I46,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.026</v>
       </c>
-      <c r="M46" s="14" t="str">
+      <c r="M46" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I46,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="47" spans="5:13" s="2" customFormat="1" ht="21" collapsed="1">
-      <c r="E47" s="6" t="str">
+      <c r="E47" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G47,list!A:A,0),0)</f>
-        <v>Relative age</v>
-      </c>
-      <c r="F47" s="6" t="s">
+        <v>Age within Grade (Months)</v>
+      </c>
+      <c r="F47" t="s">
         <v>182</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47">
         <v>9</v>
       </c>
-      <c r="I47" s="6" t="str">
+      <c r="I47" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_relative_age_9</v>
       </c>
-      <c r="J47" s="14" t="str">
+      <c r="J47" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I47,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.563</v>
       </c>
-      <c r="K47" s="14" t="str">
+      <c r="K47" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I47,summary_glance!$AA:$AA,0),0),"")</f>
         <v>5.535</v>
       </c>
-      <c r="L47" s="14" t="str">
+      <c r="L47" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I47,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.029</v>
       </c>
-      <c r="M47" s="14" t="str">
+      <c r="M47" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I47,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.644</v>
       </c>
     </row>
     <row r="48" spans="5:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
-      <c r="E48" s="6" t="s">
+      <c r="E48" t="s">
         <v>190</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" t="s">
         <v>176</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" t="s">
         <v>189</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48">
         <v>4</v>
       </c>
-      <c r="I48" s="6" t="str">
+      <c r="I48" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_girl_4</v>
       </c>
-      <c r="J48" s="14" t="str">
+      <c r="J48" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I48,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.499</v>
       </c>
-      <c r="K48" s="14" t="str">
+      <c r="K48" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I48,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.504</v>
       </c>
-      <c r="L48" s="14" t="str">
+      <c r="L48" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I48,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.005</v>
       </c>
-      <c r="M48" s="14" t="str">
+      <c r="M48" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I48,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="49" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A49"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6" t="s">
+      <c r="E49"/>
+      <c r="F49" t="s">
         <v>178</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" t="s">
         <v>189</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49">
         <v>5</v>
       </c>
-      <c r="I49" s="6" t="str">
+      <c r="I49" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_girl_5</v>
       </c>
-      <c r="J49" s="14" t="str">
+      <c r="J49" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I49,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.500</v>
       </c>
-      <c r="K49" s="14" t="str">
+      <c r="K49" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I49,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.498</v>
       </c>
-      <c r="L49" s="14" t="str">
+      <c r="L49" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I49,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.002</v>
       </c>
-      <c r="M49" s="14" t="str">
+      <c r="M49" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I49,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="50" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A50"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6" t="s">
+      <c r="E50"/>
+      <c r="F50" t="s">
         <v>179</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" t="s">
         <v>189</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50">
         <v>6</v>
       </c>
-      <c r="I50" s="6" t="str">
+      <c r="I50" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_girl_6</v>
       </c>
-      <c r="J50" s="14" t="str">
+      <c r="J50" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I50,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.498</v>
       </c>
-      <c r="K50" s="14" t="str">
+      <c r="K50" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I50,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.491</v>
       </c>
-      <c r="L50" s="14" t="str">
+      <c r="L50" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I50,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.007</v>
       </c>
-      <c r="M50" s="14" t="str">
+      <c r="M50" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I50,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="51" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A51"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6" t="s">
+      <c r="E51"/>
+      <c r="F51" t="s">
         <v>180</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" t="s">
         <v>189</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51">
         <v>7</v>
       </c>
-      <c r="I51" s="6" t="str">
+      <c r="I51" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_girl_7</v>
       </c>
-      <c r="J51" s="14" t="str">
+      <c r="J51" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I51,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.496</v>
       </c>
-      <c r="K51" s="14" t="str">
+      <c r="K51" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I51,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.489</v>
       </c>
-      <c r="L51" s="14" t="str">
+      <c r="L51" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I51,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.007</v>
       </c>
-      <c r="M51" s="14" t="str">
+      <c r="M51" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I51,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="52" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A52"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6" t="s">
+      <c r="E52"/>
+      <c r="F52" t="s">
         <v>181</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" t="s">
         <v>189</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52">
         <v>8</v>
       </c>
-      <c r="I52" s="6" t="str">
+      <c r="I52" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_girl_8</v>
       </c>
-      <c r="J52" s="14" t="str">
+      <c r="J52" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I52,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.495</v>
       </c>
-      <c r="K52" s="14" t="str">
+      <c r="K52" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I52,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.485</v>
       </c>
-      <c r="L52" s="14" t="str">
+      <c r="L52" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I52,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.010</v>
       </c>
-      <c r="M52" s="14" t="str">
+      <c r="M52" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I52,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="2" customFormat="1" ht="21" collapsed="1">
       <c r="A53"/>
-      <c r="E53" s="6" t="s">
+      <c r="E53" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" t="s">
         <v>182</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" t="s">
         <v>189</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53">
         <v>9</v>
       </c>
-      <c r="I53" s="6" t="str">
+      <c r="I53" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_girl_9</v>
       </c>
-      <c r="J53" s="14" t="str">
+      <c r="J53" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I53,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.492</v>
       </c>
-      <c r="K53" s="14" t="str">
+      <c r="K53" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I53,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.487</v>
       </c>
-      <c r="L53" s="14" t="str">
+      <c r="L53" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I53,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.005</v>
       </c>
-      <c r="M53" s="14" t="str">
+      <c r="M53" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I53,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.633</v>
       </c>
     </row>
     <row r="54" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A54"/>
-      <c r="E54" s="6" t="s">
+      <c r="E54" t="s">
         <v>191</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" t="s">
         <v>176</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" t="s">
         <v>192</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54">
         <v>4</v>
       </c>
-      <c r="I54" s="6" t="str">
+      <c r="I54" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_no_book_4</v>
       </c>
-      <c r="J54" s="14" t="str">
+      <c r="J54" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I54,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.118</v>
       </c>
-      <c r="K54" s="14" t="str">
+      <c r="K54" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I54,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.102</v>
       </c>
-      <c r="L54" s="14" t="str">
+      <c r="L54" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I54,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.015</v>
       </c>
-      <c r="M54" s="14" t="str">
+      <c r="M54" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I54,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="55" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A55"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6" t="s">
+      <c r="E55"/>
+      <c r="F55" t="s">
         <v>178</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55">
         <v>5</v>
       </c>
-      <c r="I55" s="6" t="str">
+      <c r="I55" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_no_book_5</v>
       </c>
-      <c r="J55" s="14" t="str">
+      <c r="J55" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I55,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.090</v>
       </c>
-      <c r="K55" s="14" t="str">
+      <c r="K55" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I55,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.079</v>
       </c>
-      <c r="L55" s="14" t="str">
+      <c r="L55" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I55,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.010</v>
       </c>
-      <c r="M55" s="14" t="str">
+      <c r="M55" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I55,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="56" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A56"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6" t="s">
+      <c r="E56"/>
+      <c r="F56" t="s">
         <v>179</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" t="s">
         <v>192</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56">
         <v>6</v>
       </c>
-      <c r="I56" s="6" t="str">
+      <c r="I56" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_no_book_6</v>
       </c>
-      <c r="J56" s="14" t="str">
+      <c r="J56" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I56,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.078</v>
       </c>
-      <c r="K56" s="14" t="str">
+      <c r="K56" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I56,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.064</v>
       </c>
-      <c r="L56" s="14" t="str">
+      <c r="L56" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I56,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.014</v>
       </c>
-      <c r="M56" s="14" t="str">
+      <c r="M56" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I56,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A57"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6" t="s">
+      <c r="E57"/>
+      <c r="F57" t="s">
         <v>180</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" t="s">
         <v>192</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57">
         <v>7</v>
       </c>
-      <c r="I57" s="6" t="str">
+      <c r="I57" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_no_book_7</v>
       </c>
-      <c r="J57" s="14" t="str">
+      <c r="J57" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I57,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.112</v>
       </c>
-      <c r="K57" s="14" t="str">
+      <c r="K57" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I57,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.096</v>
       </c>
-      <c r="L57" s="14" t="str">
+      <c r="L57" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I57,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.016</v>
       </c>
-      <c r="M57" s="14" t="str">
+      <c r="M57" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I57,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A58"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6" t="s">
+      <c r="E58"/>
+      <c r="F58" t="s">
         <v>181</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" t="s">
         <v>192</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58">
         <v>8</v>
       </c>
-      <c r="I58" s="6" t="str">
+      <c r="I58" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_no_book_8</v>
       </c>
-      <c r="J58" s="14" t="str">
+      <c r="J58" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I58,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.122</v>
       </c>
-      <c r="K58" s="14" t="str">
+      <c r="K58" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I58,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.115</v>
       </c>
-      <c r="L58" s="14" t="str">
+      <c r="L58" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I58,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.007</v>
       </c>
-      <c r="M58" s="14" t="str">
+      <c r="M58" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I58,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="2" customFormat="1" ht="21" collapsed="1">
       <c r="A59"/>
-      <c r="E59" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="E59" t="s">
+        <v>333</v>
+      </c>
+      <c r="F59" t="s">
         <v>182</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" t="s">
         <v>192</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59">
         <v>9</v>
       </c>
-      <c r="I59" s="6" t="str">
+      <c r="I59" t="str">
         <f t="shared" si="0"/>
         <v>mean_test_no_book_9</v>
       </c>
-      <c r="J59" s="14" t="str">
+      <c r="J59" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I59,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.135</v>
       </c>
-      <c r="K59" s="14" t="str">
+      <c r="K59" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I59,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.124</v>
       </c>
-      <c r="L59" s="14" t="str">
+      <c r="L59" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I59,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.011</v>
       </c>
-      <c r="M59" s="14" t="str">
+      <c r="M59" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I59,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.094</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A60"/>
-      <c r="E60" s="6" t="str">
+      <c r="E60" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G60,list!A:A,0),0)</f>
         <v>Weekly hours of studying outside school</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" t="s">
         <v>176</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" t="s">
         <v>205</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60">
         <v>4</v>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I60" t="str">
         <f t="shared" ref="I60:I65" si="1">CONCATENATE($I$5,"_",G60,"_",H60)</f>
         <v>mean_test_studytime_4</v>
       </c>
-      <c r="J60" s="14" t="str">
+      <c r="J60" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I60,summary_glance!$AA:$AA,0),0),"")</f>
         <v>9.061</v>
       </c>
-      <c r="K60" s="14" t="str">
+      <c r="K60" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I60,summary_glance!$AA:$AA,0),0),"")</f>
         <v>9.419</v>
       </c>
-      <c r="L60" s="14" t="str">
+      <c r="L60" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I60,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.358</v>
       </c>
-      <c r="M60" s="14" t="str">
+      <c r="M60" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I60,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A61"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6" t="s">
+      <c r="E61"/>
+      <c r="F61" t="s">
         <v>178</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" t="s">
         <v>205</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61">
         <v>5</v>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="I61" t="str">
         <f t="shared" si="1"/>
         <v>mean_test_studytime_5</v>
       </c>
-      <c r="J61" s="14" t="str">
+      <c r="J61" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I61,summary_glance!$AA:$AA,0),0),"")</f>
         <v>9.328</v>
       </c>
-      <c r="K61" s="14" t="str">
+      <c r="K61" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I61,summary_glance!$AA:$AA,0),0),"")</f>
         <v>9.935</v>
       </c>
-      <c r="L61" s="14" t="str">
+      <c r="L61" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I61,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.607</v>
       </c>
-      <c r="M61" s="14" t="str">
+      <c r="M61" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I61,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A62"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6" t="s">
+      <c r="E62"/>
+      <c r="F62" t="s">
         <v>179</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" t="s">
         <v>212</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62">
         <v>6</v>
       </c>
-      <c r="I62" s="6" t="str">
+      <c r="I62" t="str">
         <f t="shared" si="1"/>
         <v>mean_test_studytime_6</v>
       </c>
-      <c r="J62" s="14" t="str">
+      <c r="J62" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I62,summary_glance!$AA:$AA,0),0),"")</f>
         <v>9.726</v>
       </c>
-      <c r="K62" s="14" t="str">
+      <c r="K62" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I62,summary_glance!$AA:$AA,0),0),"")</f>
         <v>10.273</v>
       </c>
-      <c r="L62" s="14" t="str">
+      <c r="L62" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I62,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.547</v>
       </c>
-      <c r="M62" s="14" t="str">
+      <c r="M62" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I62,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A63"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6" t="s">
+      <c r="E63"/>
+      <c r="F63" t="s">
         <v>180</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" t="s">
         <v>205</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63">
         <v>7</v>
       </c>
-      <c r="I63" s="6" t="str">
+      <c r="I63" t="str">
         <f t="shared" si="1"/>
         <v>mean_test_studytime_7</v>
       </c>
-      <c r="J63" s="14" t="str">
+      <c r="J63" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I63,summary_glance!$AA:$AA,0),0),"")</f>
         <v>9.400</v>
       </c>
-      <c r="K63" s="14" t="str">
+      <c r="K63" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I63,summary_glance!$AA:$AA,0),0),"")</f>
         <v>9.228</v>
       </c>
-      <c r="L63" s="14" t="str">
+      <c r="L63" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I63,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.172</v>
       </c>
-      <c r="M63" s="14" t="str">
+      <c r="M63" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I63,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A64"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6" t="s">
+      <c r="E64"/>
+      <c r="F64" t="s">
         <v>181</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" t="s">
         <v>205</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64">
         <v>8</v>
       </c>
-      <c r="I64" s="6" t="str">
+      <c r="I64" t="str">
         <f t="shared" si="1"/>
         <v>mean_test_studytime_8</v>
       </c>
-      <c r="J64" s="14" t="str">
+      <c r="J64" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I64,summary_glance!$AA:$AA,0),0),"")</f>
         <v>9.641</v>
       </c>
-      <c r="K64" s="14" t="str">
+      <c r="K64" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I64,summary_glance!$AA:$AA,0),0),"")</f>
         <v>9.406</v>
       </c>
-      <c r="L64" s="14" t="str">
+      <c r="L64" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I64,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.235</v>
       </c>
-      <c r="M64" s="14" t="str">
+      <c r="M64" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I64,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="2" customFormat="1" ht="21" collapsed="1">
       <c r="A65"/>
-      <c r="E65" s="6" t="str">
+      <c r="E65" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G65,list!A:A,0),0)</f>
         <v>Weekly hours of studying outside school</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" t="s">
         <v>182</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" t="s">
         <v>205</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65">
         <v>9</v>
       </c>
-      <c r="I65" s="6" t="str">
+      <c r="I65" t="str">
         <f t="shared" si="1"/>
         <v>mean_test_studytime_9</v>
       </c>
-      <c r="J65" s="14" t="str">
+      <c r="J65" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I65,summary_glance!$AA:$AA,0),0),"")</f>
         <v>10.624</v>
       </c>
-      <c r="K65" s="14" t="str">
+      <c r="K65" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I65,summary_glance!$AA:$AA,0),0),"")</f>
         <v>10.879</v>
       </c>
-      <c r="L65" s="14" t="str">
+      <c r="L65" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I65,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.255</v>
       </c>
-      <c r="M65" s="14" t="str">
+      <c r="M65" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I65,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.062</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
-      <c r="E66" s="6" t="str">
+      <c r="E66" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G66,list!A:A,0),0)</f>
         <v>Prep school</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" t="s">
         <v>176</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="G66" t="s">
         <v>213</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66">
         <v>4</v>
       </c>
-      <c r="I66" s="6" t="str">
+      <c r="I66" t="str">
         <f t="shared" ref="I66:I71" si="2">CONCATENATE($I$5,"_",G66,"_",H66)</f>
         <v>mean_test_cram_4</v>
       </c>
-      <c r="J66" s="14" t="str">
+      <c r="J66" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I66,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.577</v>
       </c>
-      <c r="K66" s="14" t="str">
+      <c r="K66" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I66,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.605</v>
       </c>
-      <c r="L66" s="14" t="str">
+      <c r="L66" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I66,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.029</v>
       </c>
-      <c r="M66" s="14" t="str">
+      <c r="M66" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I66,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A67"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6" t="s">
+      <c r="E67"/>
+      <c r="F67" t="s">
         <v>178</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" t="s">
         <v>213</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67">
         <v>5</v>
       </c>
-      <c r="I67" s="6" t="str">
+      <c r="I67" t="str">
         <f t="shared" si="2"/>
         <v>mean_test_cram_5</v>
       </c>
-      <c r="J67" s="14" t="str">
+      <c r="J67" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I67,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.542</v>
       </c>
-      <c r="K67" s="14" t="str">
+      <c r="K67" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I67,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.572</v>
       </c>
-      <c r="L67" s="14" t="str">
+      <c r="L67" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I67,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.029</v>
       </c>
-      <c r="M67" s="14" t="str">
+      <c r="M67" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I67,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A68"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6" t="s">
+      <c r="E68"/>
+      <c r="F68" t="s">
         <v>179</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" t="s">
         <v>213</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68">
         <v>6</v>
       </c>
-      <c r="I68" s="6" t="str">
+      <c r="I68" t="str">
         <f t="shared" si="2"/>
         <v>mean_test_cram_6</v>
       </c>
-      <c r="J68" s="14" t="str">
+      <c r="J68" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I68,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.543</v>
       </c>
-      <c r="K68" s="14" t="str">
+      <c r="K68" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I68,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.582</v>
       </c>
-      <c r="L68" s="14" t="str">
+      <c r="L68" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I68,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.039</v>
       </c>
-      <c r="M68" s="14" t="str">
+      <c r="M68" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I68,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="69" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A69"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6" t="s">
+      <c r="E69"/>
+      <c r="F69" t="s">
         <v>180</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" t="s">
         <v>213</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69">
         <v>7</v>
       </c>
-      <c r="I69" s="6" t="str">
+      <c r="I69" t="str">
         <f t="shared" si="2"/>
         <v>mean_test_cram_7</v>
       </c>
-      <c r="J69" s="14" t="str">
+      <c r="J69" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I69,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.544</v>
       </c>
-      <c r="K69" s="14" t="str">
+      <c r="K69" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I69,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.578</v>
       </c>
-      <c r="L69" s="14" t="str">
+      <c r="L69" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I69,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.034</v>
       </c>
-      <c r="M69" s="14" t="str">
+      <c r="M69" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I69,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A70"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6" t="s">
+      <c r="E70"/>
+      <c r="F70" t="s">
         <v>181</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" t="s">
         <v>213</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70">
         <v>8</v>
       </c>
-      <c r="I70" s="6" t="str">
+      <c r="I70" t="str">
         <f t="shared" si="2"/>
         <v>mean_test_cram_8</v>
       </c>
-      <c r="J70" s="14" t="str">
+      <c r="J70" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I70,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.598</v>
       </c>
-      <c r="K70" s="14" t="str">
+      <c r="K70" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I70,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.609</v>
       </c>
-      <c r="L70" s="14" t="str">
+      <c r="L70" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I70,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.011</v>
       </c>
-      <c r="M70" s="14" t="str">
+      <c r="M70" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I70,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="2" customFormat="1" ht="21" collapsed="1">
       <c r="A71"/>
-      <c r="E71" s="6" t="str">
+      <c r="E71" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G71,list!A:A,0),0)</f>
         <v>Prep school</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" t="s">
         <v>182</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" t="s">
         <v>213</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71">
         <v>9</v>
       </c>
-      <c r="I71" s="6" t="str">
+      <c r="I71" t="str">
         <f t="shared" si="2"/>
         <v>mean_test_cram_9</v>
       </c>
-      <c r="J71" s="14" t="str">
+      <c r="J71" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I71,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.699</v>
       </c>
-      <c r="K71" s="14" t="str">
+      <c r="K71" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I71,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.724</v>
       </c>
-      <c r="L71" s="14" t="str">
+      <c r="L71" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I71,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.024</v>
       </c>
-      <c r="M71" s="14" t="str">
+      <c r="M71" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I71,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.007</v>
       </c>
     </row>
     <row r="72" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
-      <c r="E72" s="6" t="str">
+      <c r="E72" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G72,list!A:A,0),0)</f>
         <v>Weekly hours of reading</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" t="s">
         <v>176</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" t="s">
         <v>209</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H72">
         <v>4</v>
       </c>
-      <c r="I72" s="6" t="str">
+      <c r="I72" t="str">
         <f t="shared" ref="I72:I83" si="3">CONCATENATE($I$5,"_",G72,"_",H72)</f>
         <v>mean_test_reading_time_in_a_weekdays_4</v>
       </c>
-      <c r="J72" s="14" t="str">
+      <c r="J72" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I72,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.188</v>
       </c>
-      <c r="K72" s="14" t="str">
+      <c r="K72" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I72,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.195</v>
       </c>
-      <c r="L72" s="14" t="str">
+      <c r="L72" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I72,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.007</v>
       </c>
-      <c r="M72" s="14" t="str">
+      <c r="M72" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I72,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A73"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6" t="s">
+      <c r="E73"/>
+      <c r="F73" t="s">
         <v>178</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" t="s">
         <v>209</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H73">
         <v>5</v>
       </c>
-      <c r="I73" s="6" t="str">
+      <c r="I73" t="str">
         <f t="shared" si="3"/>
         <v>mean_test_reading_time_in_a_weekdays_5</v>
       </c>
-      <c r="J73" s="14" t="str">
+      <c r="J73" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I73,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.269</v>
       </c>
-      <c r="K73" s="14" t="str">
+      <c r="K73" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I73,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.481</v>
       </c>
-      <c r="L73" s="14" t="str">
+      <c r="L73" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I73,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.212</v>
       </c>
-      <c r="M73" s="14" t="str">
+      <c r="M73" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I73,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A74"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6" t="s">
+      <c r="E74"/>
+      <c r="F74" t="s">
         <v>179</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" t="s">
         <v>209</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H74">
         <v>6</v>
       </c>
-      <c r="I74" s="6" t="str">
+      <c r="I74" t="str">
         <f t="shared" si="3"/>
         <v>mean_test_reading_time_in_a_weekdays_6</v>
       </c>
-      <c r="J74" s="14" t="str">
+      <c r="J74" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I74,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.144</v>
       </c>
-      <c r="K74" s="14" t="str">
+      <c r="K74" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I74,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.199</v>
       </c>
-      <c r="L74" s="14" t="str">
+      <c r="L74" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I74,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.055</v>
       </c>
-      <c r="M74" s="14" t="str">
+      <c r="M74" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I74,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A75"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6" t="s">
+      <c r="E75"/>
+      <c r="F75" t="s">
         <v>180</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" t="s">
         <v>209</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H75">
         <v>7</v>
       </c>
-      <c r="I75" s="6" t="str">
+      <c r="I75" t="str">
         <f t="shared" si="3"/>
         <v>mean_test_reading_time_in_a_weekdays_7</v>
       </c>
-      <c r="J75" s="14" t="str">
+      <c r="J75" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I75,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.188</v>
       </c>
-      <c r="K75" s="14" t="str">
+      <c r="K75" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I75,summary_glance!$AA:$AA,0),0),"")</f>
         <v>3.918</v>
       </c>
-      <c r="L75" s="14" t="str">
+      <c r="L75" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I75,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.269</v>
       </c>
-      <c r="M75" s="14" t="str">
+      <c r="M75" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I75,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A76"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6" t="s">
+      <c r="E76"/>
+      <c r="F76" t="s">
         <v>181</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" t="s">
         <v>209</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76">
         <v>8</v>
       </c>
-      <c r="I76" s="6" t="str">
+      <c r="I76" t="str">
         <f t="shared" si="3"/>
         <v>mean_test_reading_time_in_a_weekdays_8</v>
       </c>
-      <c r="J76" s="14" t="str">
+      <c r="J76" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I76,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.048</v>
       </c>
-      <c r="K76" s="14" t="str">
+      <c r="K76" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I76,summary_glance!$AA:$AA,0),0),"")</f>
         <v>3.793</v>
       </c>
-      <c r="L76" s="14" t="str">
+      <c r="L76" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I76,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.255</v>
       </c>
-      <c r="M76" s="14" t="str">
+      <c r="M76" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I76,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="2" customFormat="1" ht="21" collapsed="1">
       <c r="A77"/>
-      <c r="E77" s="6" t="str">
+      <c r="E77" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G77,list!A:A,0),0)</f>
         <v>Weekly hours of reading</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" t="s">
         <v>182</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" t="s">
         <v>209</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77">
         <v>9</v>
       </c>
-      <c r="I77" s="6" t="str">
+      <c r="I77" t="str">
         <f t="shared" si="3"/>
         <v>mean_test_reading_time_in_a_weekdays_9</v>
       </c>
-      <c r="J77" s="14" t="str">
+      <c r="J77" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I77,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.060</v>
       </c>
-      <c r="K77" s="14" t="str">
+      <c r="K77" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I77,summary_glance!$AA:$AA,0),0),"")</f>
         <v>3.843</v>
       </c>
-      <c r="L77" s="14" t="str">
+      <c r="L77" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I77,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.216</v>
       </c>
-      <c r="M77" s="14" t="str">
+      <c r="M77" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I77,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.220</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A78"/>
-      <c r="E78" s="6" t="str">
+      <c r="E78" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G78,list!A:A,0),0)</f>
         <v>Weekly hours of arts, music, and sports</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" t="s">
         <v>176</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" t="s">
         <v>210</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78">
         <v>4</v>
       </c>
-      <c r="I78" s="6" t="str">
+      <c r="I78" t="str">
         <f t="shared" si="3"/>
         <v>mean_test_lesson_time_4</v>
       </c>
-      <c r="J78" s="14" t="str">
+      <c r="J78" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I78,summary_glance!$AA:$AA,0),0),"")</f>
         <v>2.329</v>
       </c>
-      <c r="K78" s="14" t="str">
+      <c r="K78" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I78,summary_glance!$AA:$AA,0),0),"")</f>
         <v>2.401</v>
       </c>
-      <c r="L78" s="14" t="str">
+      <c r="L78" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I78,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.072</v>
       </c>
-      <c r="M78" s="14" t="str">
+      <c r="M78" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I78,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A79"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6" t="s">
+      <c r="E79"/>
+      <c r="F79" t="s">
         <v>178</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" t="s">
         <v>210</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79">
         <v>5</v>
       </c>
-      <c r="I79" s="6" t="str">
+      <c r="I79" t="str">
         <f t="shared" si="3"/>
         <v>mean_test_lesson_time_5</v>
       </c>
-      <c r="J79" s="14" t="str">
+      <c r="J79" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I79,summary_glance!$AA:$AA,0),0),"")</f>
         <v>2.380</v>
       </c>
-      <c r="K79" s="14" t="str">
+      <c r="K79" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I79,summary_glance!$AA:$AA,0),0),"")</f>
         <v>2.406</v>
       </c>
-      <c r="L79" s="14" t="str">
+      <c r="L79" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I79,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.027</v>
       </c>
-      <c r="M79" s="14" t="str">
+      <c r="M79" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I79,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A80"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6" t="s">
+      <c r="E80"/>
+      <c r="F80" t="s">
         <v>179</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" t="s">
         <v>210</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H80">
         <v>6</v>
       </c>
-      <c r="I80" s="6" t="str">
+      <c r="I80" t="str">
         <f t="shared" si="3"/>
         <v>mean_test_lesson_time_6</v>
       </c>
-      <c r="J80" s="14" t="str">
+      <c r="J80" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I80,summary_glance!$AA:$AA,0),0),"")</f>
         <v>2.325</v>
       </c>
-      <c r="K80" s="14" t="str">
+      <c r="K80" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I80,summary_glance!$AA:$AA,0),0),"")</f>
         <v>2.265</v>
       </c>
-      <c r="L80" s="14" t="str">
+      <c r="L80" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I80,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.060</v>
       </c>
-      <c r="M80" s="14" t="str">
+      <c r="M80" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I80,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="81" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A81"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6" t="s">
+      <c r="E81"/>
+      <c r="F81" t="s">
         <v>180</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" t="s">
         <v>210</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H81">
         <v>7</v>
       </c>
-      <c r="I81" s="6" t="str">
+      <c r="I81" t="str">
         <f t="shared" si="3"/>
         <v>mean_test_lesson_time_7</v>
       </c>
-      <c r="J81" s="14" t="str">
+      <c r="J81" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I81,summary_glance!$AA:$AA,0),0),"")</f>
         <v>1.561</v>
       </c>
-      <c r="K81" s="14" t="str">
+      <c r="K81" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I81,summary_glance!$AA:$AA,0),0),"")</f>
         <v>1.569</v>
       </c>
-      <c r="L81" s="14" t="str">
+      <c r="L81" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I81,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.009</v>
       </c>
-      <c r="M81" s="14" t="str">
+      <c r="M81" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I81,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A82"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6" t="s">
+      <c r="E82"/>
+      <c r="F82" t="s">
         <v>181</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" t="s">
         <v>210</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H82">
         <v>8</v>
       </c>
-      <c r="I82" s="6" t="str">
+      <c r="I82" t="str">
         <f t="shared" si="3"/>
         <v>mean_test_lesson_time_8</v>
       </c>
-      <c r="J82" s="14" t="str">
+      <c r="J82" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I82,summary_glance!$AA:$AA,0),0),"")</f>
         <v>1.249</v>
       </c>
-      <c r="K82" s="14" t="str">
+      <c r="K82" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I82,summary_glance!$AA:$AA,0),0),"")</f>
         <v>1.227</v>
       </c>
-      <c r="L82" s="14" t="str">
+      <c r="L82" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I82,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.022</v>
       </c>
-      <c r="M82" s="14" t="str">
+      <c r="M82" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I82,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="83" spans="1:13" s="2" customFormat="1" ht="21" collapsed="1">
       <c r="A83"/>
-      <c r="E83" s="6" t="str">
+      <c r="E83" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G83,list!A:A,0),0)</f>
         <v>Weekly hours of arts, music, and sports</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" t="s">
         <v>182</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G83" t="s">
         <v>210</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H83">
         <v>9</v>
       </c>
-      <c r="I83" s="6" t="str">
+      <c r="I83" t="str">
         <f t="shared" si="3"/>
         <v>mean_test_lesson_time_9</v>
       </c>
-      <c r="J83" s="14" t="str">
+      <c r="J83" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I83,summary_glance!$AA:$AA,0),0),"")</f>
         <v>1.128</v>
       </c>
-      <c r="K83" s="14" t="str">
+      <c r="K83" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I83,summary_glance!$AA:$AA,0),0),"")</f>
         <v>1.115</v>
       </c>
-      <c r="L83" s="14" t="str">
+      <c r="L83" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I83,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.013</v>
       </c>
-      <c r="M83" s="14" t="str">
+      <c r="M83" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I83,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.840</v>
       </c>
     </row>
     <row r="84" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A84"/>
-      <c r="E84" s="6" t="str">
+      <c r="E84" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G84,list!A:A,0),0)</f>
         <v>Weekly hours of playing outside and sports</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" t="s">
         <v>176</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" t="s">
         <v>211</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H84">
         <v>4</v>
       </c>
-      <c r="I84" s="6" t="str">
+      <c r="I84" t="str">
         <f t="shared" ref="I84:I89" si="4">CONCATENATE($I$5,"_",G84,"_",H84)</f>
         <v>mean_test_playing_sport_4</v>
       </c>
-      <c r="J84" s="14" t="str">
+      <c r="J84" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I84,summary_glance!$AA:$AA,0),0),"")</f>
         <v>3.685</v>
       </c>
-      <c r="K84" s="14" t="str">
+      <c r="K84" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I84,summary_glance!$AA:$AA,0),0),"")</f>
         <v>3.746</v>
       </c>
-      <c r="L84" s="14" t="str">
+      <c r="L84" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I84,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.061</v>
       </c>
-      <c r="M84" s="14" t="str">
+      <c r="M84" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I84,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="85" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A85"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6" t="s">
+      <c r="E85"/>
+      <c r="F85" t="s">
         <v>178</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" t="s">
         <v>211</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85">
         <v>5</v>
       </c>
-      <c r="I85" s="6" t="str">
+      <c r="I85" t="str">
         <f t="shared" si="4"/>
         <v>mean_test_playing_sport_5</v>
       </c>
-      <c r="J85" s="14" t="str">
+      <c r="J85" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I85,summary_glance!$AA:$AA,0),0),"")</f>
         <v>3.794</v>
       </c>
-      <c r="K85" s="14" t="str">
+      <c r="K85" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I85,summary_glance!$AA:$AA,0),0),"")</f>
         <v>3.684</v>
       </c>
-      <c r="L85" s="14" t="str">
+      <c r="L85" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I85,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.110</v>
       </c>
-      <c r="M85" s="14" t="str">
+      <c r="M85" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I85,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="86" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A86"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6" t="s">
+      <c r="E86"/>
+      <c r="F86" t="s">
         <v>179</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" t="s">
         <v>211</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H86">
         <v>6</v>
       </c>
-      <c r="I86" s="6" t="str">
+      <c r="I86" t="str">
         <f t="shared" si="4"/>
         <v>mean_test_playing_sport_6</v>
       </c>
-      <c r="J86" s="14" t="str">
+      <c r="J86" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I86,summary_glance!$AA:$AA,0),0),"")</f>
         <v>3.688</v>
       </c>
-      <c r="K86" s="14" t="str">
+      <c r="K86" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I86,summary_glance!$AA:$AA,0),0),"")</f>
         <v>3.394</v>
       </c>
-      <c r="L86" s="14" t="str">
+      <c r="L86" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I86,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.294</v>
       </c>
-      <c r="M86" s="14" t="str">
+      <c r="M86" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I86,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="87" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A87"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6" t="s">
+      <c r="E87"/>
+      <c r="F87" t="s">
         <v>180</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" t="s">
         <v>211</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H87">
         <v>7</v>
       </c>
-      <c r="I87" s="6" t="str">
+      <c r="I87" t="str">
         <f t="shared" si="4"/>
         <v>mean_test_playing_sport_7</v>
       </c>
-      <c r="J87" s="14" t="str">
+      <c r="J87" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I87,summary_glance!$AA:$AA,0),0),"")</f>
         <v>3.013</v>
       </c>
-      <c r="K87" s="14" t="str">
+      <c r="K87" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I87,summary_glance!$AA:$AA,0),0),"")</f>
         <v>2.975</v>
       </c>
-      <c r="L87" s="14" t="str">
+      <c r="L87" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I87,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.038</v>
       </c>
-      <c r="M87" s="14" t="str">
+      <c r="M87" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I87,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="88" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A88"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6" t="s">
+      <c r="E88"/>
+      <c r="F88" t="s">
         <v>181</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" t="s">
         <v>211</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H88">
         <v>8</v>
       </c>
-      <c r="I88" s="6" t="str">
+      <c r="I88" t="str">
         <f t="shared" si="4"/>
         <v>mean_test_playing_sport_8</v>
       </c>
-      <c r="J88" s="14" t="str">
+      <c r="J88" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I88,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.841</v>
       </c>
-      <c r="K88" s="14" t="str">
+      <c r="K88" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I88,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.837</v>
       </c>
-      <c r="L88" s="14" t="str">
+      <c r="L88" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I88,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.004</v>
       </c>
-      <c r="M88" s="14" t="str">
+      <c r="M88" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I88,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="89" spans="1:13" s="2" customFormat="1" ht="21" collapsed="1">
       <c r="A89"/>
-      <c r="E89" s="6" t="str">
+      <c r="E89" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G89,list!A:A,0),0)</f>
         <v>Weekly hours of playing outside and sports</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" t="s">
         <v>182</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" t="s">
         <v>211</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H89">
         <v>9</v>
       </c>
-      <c r="I89" s="6" t="str">
+      <c r="I89" t="str">
         <f t="shared" si="4"/>
         <v>mean_test_playing_sport_9</v>
       </c>
-      <c r="J89" s="14" t="str">
+      <c r="J89" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I89,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.848</v>
       </c>
-      <c r="K89" s="14" t="str">
+      <c r="K89" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I89,summary_glance!$AA:$AA,0),0),"")</f>
         <v>4.792</v>
       </c>
-      <c r="L89" s="14" t="str">
+      <c r="L89" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I89,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.055</v>
       </c>
-      <c r="M89" s="14" t="str">
+      <c r="M89" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I89,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.637</v>
       </c>
     </row>
     <row r="90" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
-      <c r="E90" s="6" t="str">
+      <c r="E90" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G90,list!A:A,0),0)</f>
         <v>Peers</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" t="s">
         <v>176</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" t="s">
         <v>207</v>
       </c>
-      <c r="H90" s="6">
+      <c r="H90">
         <v>4</v>
       </c>
-      <c r="I90" s="6" t="str">
+      <c r="I90" t="str">
         <f t="shared" ref="I90:I101" si="5">CONCATENATE($I$5,"_",G90,"_",H90)</f>
         <v>mean_test_zfriendrelation_4</v>
       </c>
-      <c r="J90" s="14" t="str">
+      <c r="J90" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I90,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K90" s="14" t="str">
+      <c r="K90" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I90,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.067</v>
       </c>
-      <c r="L90" s="14" t="str">
+      <c r="L90" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I90,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.067</v>
       </c>
-      <c r="M90" s="14" t="str">
+      <c r="M90" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I90,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="91" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A91"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6" t="s">
+      <c r="E91"/>
+      <c r="F91" t="s">
         <v>178</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" t="s">
         <v>207</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91">
         <v>5</v>
       </c>
-      <c r="I91" s="6" t="str">
+      <c r="I91" t="str">
         <f t="shared" si="5"/>
         <v>mean_test_zfriendrelation_5</v>
       </c>
-      <c r="J91" s="14" t="str">
+      <c r="J91" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I91,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K91" s="14" t="str">
+      <c r="K91" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I91,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.043</v>
       </c>
-      <c r="L91" s="14" t="str">
+      <c r="L91" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I91,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.043</v>
       </c>
-      <c r="M91" s="14" t="str">
+      <c r="M91" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I91,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="92" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A92"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6" t="s">
+      <c r="E92"/>
+      <c r="F92" t="s">
         <v>179</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" t="s">
         <v>207</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H92">
         <v>6</v>
       </c>
-      <c r="I92" s="6" t="str">
+      <c r="I92" t="str">
         <f t="shared" si="5"/>
         <v>mean_test_zfriendrelation_6</v>
       </c>
-      <c r="J92" s="14" t="str">
+      <c r="J92" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I92,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K92" s="14" t="str">
+      <c r="K92" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I92,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.109</v>
       </c>
-      <c r="L92" s="14" t="str">
+      <c r="L92" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I92,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.109</v>
       </c>
-      <c r="M92" s="14" t="str">
+      <c r="M92" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I92,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="93" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A93"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6" t="s">
+      <c r="E93"/>
+      <c r="F93" t="s">
         <v>180</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" t="s">
         <v>207</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H93">
         <v>7</v>
       </c>
-      <c r="I93" s="6" t="str">
+      <c r="I93" t="str">
         <f t="shared" si="5"/>
         <v>mean_test_zfriendrelation_7</v>
       </c>
-      <c r="J93" s="14" t="str">
+      <c r="J93" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I93,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K93" s="14" t="str">
+      <c r="K93" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I93,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.099</v>
       </c>
-      <c r="L93" s="14" t="str">
+      <c r="L93" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I93,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.099</v>
       </c>
-      <c r="M93" s="14" t="str">
+      <c r="M93" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I93,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="2" customFormat="1" ht="21" hidden="1" outlineLevel="1">
       <c r="A94"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6" t="s">
+      <c r="E94"/>
+      <c r="F94" t="s">
         <v>181</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" t="s">
         <v>207</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H94">
         <v>8</v>
       </c>
-      <c r="I94" s="6" t="str">
+      <c r="I94" t="str">
         <f t="shared" si="5"/>
         <v>mean_test_zfriendrelation_8</v>
       </c>
-      <c r="J94" s="14" t="str">
+      <c r="J94" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I94,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K94" s="14" t="str">
+      <c r="K94" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I94,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.093</v>
       </c>
-      <c r="L94" s="14" t="str">
+      <c r="L94" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I94,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.093</v>
       </c>
-      <c r="M94" s="14" t="str">
+      <c r="M94" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I94,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
     </row>
     <row r="95" spans="1:13" s="2" customFormat="1" ht="21" collapsed="1">
       <c r="A95"/>
-      <c r="E95" s="6" t="str">
+      <c r="E95" t="str">
         <f>INDEX(list!B:B,MATCH(summary!G95,list!A:A,0),0)</f>
         <v>Peers</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" t="s">
         <v>182</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" t="s">
         <v>207</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H95">
         <v>9</v>
       </c>
-      <c r="I95" s="6" t="str">
+      <c r="I95" t="str">
         <f t="shared" si="5"/>
         <v>mean_test_zfriendrelation_9</v>
       </c>
-      <c r="J95" s="14" t="str">
+      <c r="J95" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I95,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K95" s="14" t="str">
+      <c r="K95" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I95,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.054</v>
       </c>
-      <c r="L95" s="14" t="str">
+      <c r="L95" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I95,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.054</v>
       </c>
-      <c r="M95" s="14" t="str">
+      <c r="M95" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I95,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.002</v>
       </c>
@@ -4610,19 +4592,19 @@
         <f t="shared" si="5"/>
         <v>mean_test_teacherrelation2_4</v>
       </c>
-      <c r="J96" s="10" t="str">
+      <c r="J96" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I96,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.001</v>
       </c>
-      <c r="K96" s="10" t="str">
+      <c r="K96" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I96,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.066</v>
       </c>
-      <c r="L96" s="10" t="str">
+      <c r="L96" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I96,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.067</v>
       </c>
-      <c r="M96" s="10" t="str">
+      <c r="M96" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I96,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
@@ -4643,19 +4625,19 @@
         <f t="shared" si="5"/>
         <v>mean_test_teacherrelation2_5</v>
       </c>
-      <c r="J97" s="10" t="str">
+      <c r="J97" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I97,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K97" s="10" t="str">
+      <c r="K97" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I97,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.079</v>
       </c>
-      <c r="L97" s="10" t="str">
+      <c r="L97" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I97,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.079</v>
       </c>
-      <c r="M97" s="10" t="str">
+      <c r="M97" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I97,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
@@ -4676,19 +4658,19 @@
         <f t="shared" si="5"/>
         <v>mean_test_teacherrelation2_6</v>
       </c>
-      <c r="J98" s="10" t="str">
+      <c r="J98" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I98,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K98" s="10" t="str">
+      <c r="K98" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I98,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.094</v>
       </c>
-      <c r="L98" s="10" t="str">
+      <c r="L98" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I98,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.094</v>
       </c>
-      <c r="M98" s="10" t="str">
+      <c r="M98" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I98,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
@@ -4709,19 +4691,19 @@
         <f t="shared" si="5"/>
         <v>mean_test_teacherrelation2_7</v>
       </c>
-      <c r="J99" s="10" t="str">
+      <c r="J99" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I99,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K99" s="10" t="str">
+      <c r="K99" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I99,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.191</v>
       </c>
-      <c r="L99" s="10" t="str">
+      <c r="L99" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I99,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.192</v>
       </c>
-      <c r="M99" s="10" t="str">
+      <c r="M99" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I99,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
@@ -4742,19 +4724,19 @@
         <f t="shared" si="5"/>
         <v>mean_test_teacherrelation2_8</v>
       </c>
-      <c r="J100" s="10" t="str">
+      <c r="J100" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AC:$AC,MATCH($I100,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.000</v>
       </c>
-      <c r="K100" s="10" t="str">
+      <c r="K100" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AD:$AD,MATCH($I100,summary_glance!$AA:$AA,0),0),"")</f>
         <v>-0.191</v>
       </c>
-      <c r="L100" s="10" t="str">
+      <c r="L100" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AE:$AE,MATCH($I100,summary_glance!$AA:$AA,0),0),"")</f>
         <v>0.191</v>
       </c>
-      <c r="M100" s="10" t="str">
+      <c r="M100" s="9" t="str">
         <f>IFERROR(INDEX(summary_glance!$AF:$AF,MATCH($I100,summary_glance!$AA:$AA,0),0),"")</f>
         <v>NA</v>
       </c>
@@ -4804,9 +4786,9 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4819,7 +4801,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B82"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4829,611 +4811,611 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="16" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="16" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="16" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="16" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="16" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="B10" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="16" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="16" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="16" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="12" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="15" t="s">
+      <c r="B19" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B21" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="15" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B22" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B24" s="16" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="12" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B25" s="16" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="12" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B26" s="16" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="B27" s="16" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="12" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="B28" s="16" t="s">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="12" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B29" s="16" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="12" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="B31" s="16" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="12" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="15" t="s">
+      <c r="B32" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B32" s="16" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="12" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
+      <c r="B33" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B33" s="16" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="12" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
+      <c r="B34" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="B34" s="16" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="15" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="16"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="16"/>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="16"/>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="B79" s="16" t="s">
+      <c r="B80" s="13" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B80" s="16" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="B81" s="16" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5453,7 +5435,7 @@
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>211</v>
       </c>
       <c r="B85" t="s">
@@ -5464,7 +5446,7 @@
       <c r="A86" t="s">
         <v>210</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5478,14 +5460,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C54C859-259A-214D-A0F6-7F99BC37A520}">
   <dimension ref="A1:AF165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection sqref="A1:R1048576"/>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" outlineLevelCol="1"/>
   <cols>
     <col min="27" max="27" width="10.7109375" outlineLevel="1"/>
-    <col min="28" max="31" width="10.7109375" style="11"/>
+    <col min="28" max="31" width="10.7109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="42">
@@ -5543,19 +5525,19 @@
       <c r="AA1" t="s">
         <v>196</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="10" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5618,19 +5600,19 @@
         <f>N2</f>
         <v>mean_test_zgakuryoku_9</v>
       </c>
-      <c r="AB2" s="11" t="str">
+      <c r="AB2" s="10" t="str">
         <f>TEXT(B2, "0.000")</f>
         <v>-0.205</v>
       </c>
-      <c r="AC2" s="11" t="str">
+      <c r="AC2" s="10" t="str">
         <f>TEXT(C2, "0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="AD2" s="11" t="str">
+      <c r="AD2" s="10" t="str">
         <f>TEXT(D2, "0.000")</f>
         <v>0.205</v>
       </c>
-      <c r="AE2" s="11" t="str">
+      <c r="AE2" s="10" t="str">
         <f>TEXT(B2,"0.000")</f>
         <v>-0.205</v>
       </c>
@@ -5698,19 +5680,19 @@
         <f t="shared" ref="AA3:AA66" si="0">N3</f>
         <v>mean_test_zkokugo_level_9</v>
       </c>
-      <c r="AB3" s="11" t="str">
+      <c r="AB3" s="10" t="str">
         <f t="shared" ref="AB3:AB66" si="1">TEXT(B3, "0.000")</f>
         <v>-0.187</v>
       </c>
-      <c r="AC3" s="11" t="str">
+      <c r="AC3" s="10" t="str">
         <f t="shared" ref="AC3:AC66" si="2">TEXT(C3, "0.000")</f>
         <v>0.000</v>
       </c>
-      <c r="AD3" s="11" t="str">
+      <c r="AD3" s="10" t="str">
         <f t="shared" ref="AD3:AD66" si="3">TEXT(D3, "0.000")</f>
         <v>0.187</v>
       </c>
-      <c r="AE3" s="11" t="str">
+      <c r="AE3" s="10" t="str">
         <f t="shared" ref="AE3:AE66" si="4">TEXT(B3,"0.000")</f>
         <v>-0.187</v>
       </c>
@@ -5778,19 +5760,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_9</v>
       </c>
-      <c r="AB4" s="11" t="str">
+      <c r="AB4" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.223</v>
       </c>
-      <c r="AC4" s="11" t="str">
+      <c r="AC4" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD4" s="11" t="str">
+      <c r="AD4" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.223</v>
       </c>
-      <c r="AE4" s="11" t="str">
+      <c r="AE4" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.223</v>
       </c>
@@ -5858,19 +5840,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zeng_level_9</v>
       </c>
-      <c r="AB5" s="11" t="str">
+      <c r="AB5" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.228</v>
       </c>
-      <c r="AC5" s="11" t="str">
+      <c r="AC5" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD5" s="11" t="str">
+      <c r="AD5" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.228</v>
       </c>
-      <c r="AE5" s="11" t="str">
+      <c r="AE5" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.228</v>
       </c>
@@ -5938,19 +5920,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zstrategy_9</v>
       </c>
-      <c r="AB6" s="11" t="str">
+      <c r="AB6" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.083</v>
       </c>
-      <c r="AC6" s="11" t="str">
+      <c r="AC6" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD6" s="11" t="str">
+      <c r="AD6" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.083</v>
       </c>
-      <c r="AE6" s="11" t="str">
+      <c r="AE6" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.083</v>
       </c>
@@ -6018,19 +6000,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_9</v>
       </c>
-      <c r="AB7" s="11" t="str">
+      <c r="AB7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.298</v>
       </c>
-      <c r="AC7" s="11" t="str">
+      <c r="AC7" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD7" s="11" t="str">
+      <c r="AD7" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.298</v>
       </c>
-      <c r="AE7" s="11" t="str">
+      <c r="AE7" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.298</v>
       </c>
@@ -6098,19 +6080,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zselfefficacy_9</v>
       </c>
-      <c r="AB8" s="11" t="str">
+      <c r="AB8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.029</v>
       </c>
-      <c r="AC8" s="11" t="str">
+      <c r="AC8" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD8" s="11" t="str">
+      <c r="AD8" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.029</v>
       </c>
-      <c r="AE8" s="11" t="str">
+      <c r="AE8" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.029</v>
       </c>
@@ -6178,19 +6160,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zdilligence_9</v>
       </c>
-      <c r="AB9" s="11" t="str">
+      <c r="AB9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.053</v>
       </c>
-      <c r="AC9" s="11" t="str">
+      <c r="AC9" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD9" s="11" t="str">
+      <c r="AD9" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.053</v>
       </c>
-      <c r="AE9" s="11" t="str">
+      <c r="AE9" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.053</v>
       </c>
@@ -6258,19 +6240,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_girl_9</v>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.005</v>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.492</v>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.487</v>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.005</v>
       </c>
@@ -6338,19 +6320,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_no_book_9</v>
       </c>
-      <c r="AB11" s="11" t="str">
+      <c r="AB11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.011</v>
       </c>
-      <c r="AC11" s="11" t="str">
+      <c r="AC11" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.135</v>
       </c>
-      <c r="AD11" s="11" t="str">
+      <c r="AD11" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.124</v>
       </c>
-      <c r="AE11" s="11" t="str">
+      <c r="AE11" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.011</v>
       </c>
@@ -6418,19 +6400,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_cram_9</v>
       </c>
-      <c r="AB12" s="11" t="str">
+      <c r="AB12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.024</v>
       </c>
-      <c r="AC12" s="11" t="str">
+      <c r="AC12" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.699</v>
       </c>
-      <c r="AD12" s="11" t="str">
+      <c r="AD12" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.724</v>
       </c>
-      <c r="AE12" s="11" t="str">
+      <c r="AE12" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.024</v>
       </c>
@@ -6498,19 +6480,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_relative_age_9</v>
       </c>
-      <c r="AB13" s="11" t="str">
+      <c r="AB13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.029</v>
       </c>
-      <c r="AC13" s="11" t="str">
+      <c r="AC13" s="10" t="str">
         <f t="shared" si="2"/>
         <v>5.563</v>
       </c>
-      <c r="AD13" s="11" t="str">
+      <c r="AD13" s="10" t="str">
         <f t="shared" si="3"/>
         <v>5.535</v>
       </c>
-      <c r="AE13" s="11" t="str">
+      <c r="AE13" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.029</v>
       </c>
@@ -6578,19 +6560,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_hourshome_9</v>
       </c>
-      <c r="AB14" s="11" t="str">
+      <c r="AB14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.212</v>
       </c>
-      <c r="AC14" s="11" t="str">
+      <c r="AC14" s="10" t="str">
         <f t="shared" si="2"/>
         <v>6.208</v>
       </c>
-      <c r="AD14" s="11" t="str">
+      <c r="AD14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>5.996</v>
       </c>
-      <c r="AE14" s="11" t="str">
+      <c r="AE14" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.212</v>
       </c>
@@ -6658,19 +6640,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_hoursprep_9</v>
       </c>
-      <c r="AB15" s="11" t="str">
+      <c r="AB15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.465</v>
       </c>
-      <c r="AC15" s="11" t="str">
+      <c r="AC15" s="10" t="str">
         <f t="shared" si="2"/>
         <v>4.418</v>
       </c>
-      <c r="AD15" s="11" t="str">
+      <c r="AD15" s="10" t="str">
         <f t="shared" si="3"/>
         <v>4.883</v>
       </c>
-      <c r="AE15" s="11" t="str">
+      <c r="AE15" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.465</v>
       </c>
@@ -6738,19 +6720,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_studytime_9</v>
       </c>
-      <c r="AB16" s="11" t="str">
+      <c r="AB16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.255</v>
       </c>
-      <c r="AC16" s="11" t="str">
+      <c r="AC16" s="10" t="str">
         <f t="shared" si="2"/>
         <v>10.624</v>
       </c>
-      <c r="AD16" s="11" t="str">
+      <c r="AD16" s="10" t="str">
         <f t="shared" si="3"/>
         <v>10.879</v>
       </c>
-      <c r="AE16" s="11" t="str">
+      <c r="AE16" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.255</v>
       </c>
@@ -6818,19 +6800,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_teacherrelation_9</v>
       </c>
-      <c r="AB17" s="11" t="str">
+      <c r="AB17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.187</v>
       </c>
-      <c r="AC17" s="11" t="str">
+      <c r="AC17" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD17" s="11" t="str">
+      <c r="AD17" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.187</v>
       </c>
-      <c r="AE17" s="11" t="str">
+      <c r="AE17" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.187</v>
       </c>
@@ -6898,19 +6880,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zfriendrelation_9</v>
       </c>
-      <c r="AB18" s="11" t="str">
+      <c r="AB18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.054</v>
       </c>
-      <c r="AC18" s="11" t="str">
+      <c r="AC18" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD18" s="11" t="str">
+      <c r="AD18" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.054</v>
       </c>
-      <c r="AE18" s="11" t="str">
+      <c r="AE18" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.054</v>
       </c>
@@ -6978,19 +6960,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_teacherrelation2_9</v>
       </c>
-      <c r="AB19" s="11" t="str">
+      <c r="AB19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.190</v>
       </c>
-      <c r="AC19" s="11" t="str">
+      <c r="AC19" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD19" s="11" t="str">
+      <c r="AD19" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.190</v>
       </c>
-      <c r="AE19" s="11" t="str">
+      <c r="AE19" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.190</v>
       </c>
@@ -7058,19 +7040,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zyunan_9</v>
       </c>
-      <c r="AB20" s="11" t="str">
+      <c r="AB20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.195</v>
       </c>
-      <c r="AC20" s="11" t="str">
+      <c r="AC20" s="10" t="str">
         <f t="shared" si="2"/>
         <v>13.595</v>
       </c>
-      <c r="AD20" s="11" t="str">
+      <c r="AD20" s="10" t="str">
         <f t="shared" si="3"/>
         <v>13.400</v>
       </c>
-      <c r="AE20" s="11" t="str">
+      <c r="AE20" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.195</v>
       </c>
@@ -7138,19 +7120,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_planning_9</v>
       </c>
-      <c r="AB21" s="11" t="str">
+      <c r="AB21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.298</v>
       </c>
-      <c r="AC21" s="11" t="str">
+      <c r="AC21" s="10" t="str">
         <f t="shared" si="2"/>
         <v>13.560</v>
       </c>
-      <c r="AD21" s="11" t="str">
+      <c r="AD21" s="10" t="str">
         <f t="shared" si="3"/>
         <v>13.262</v>
       </c>
-      <c r="AE21" s="11" t="str">
+      <c r="AE21" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.298</v>
       </c>
@@ -7218,19 +7200,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_execution_9</v>
       </c>
-      <c r="AB22" s="11" t="str">
+      <c r="AB22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.417</v>
       </c>
-      <c r="AC22" s="11" t="str">
+      <c r="AC22" s="10" t="str">
         <f t="shared" si="2"/>
         <v>14.194</v>
       </c>
-      <c r="AD22" s="11" t="str">
+      <c r="AD22" s="10" t="str">
         <f t="shared" si="3"/>
         <v>13.777</v>
       </c>
-      <c r="AE22" s="11" t="str">
+      <c r="AE22" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.417</v>
       </c>
@@ -7298,19 +7280,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_resource_9</v>
       </c>
-      <c r="AB23" s="11" t="str">
+      <c r="AB23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.001</v>
       </c>
-      <c r="AC23" s="11" t="str">
+      <c r="AC23" s="10" t="str">
         <f t="shared" si="2"/>
         <v>11.534</v>
       </c>
-      <c r="AD23" s="11" t="str">
+      <c r="AD23" s="10" t="str">
         <f t="shared" si="3"/>
         <v>11.533</v>
       </c>
-      <c r="AE23" s="11" t="str">
+      <c r="AE23" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.001</v>
       </c>
@@ -7378,19 +7360,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_ninti_9</v>
       </c>
-      <c r="AB24" s="11" t="str">
+      <c r="AB24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.159</v>
       </c>
-      <c r="AC24" s="11" t="str">
+      <c r="AC24" s="10" t="str">
         <f t="shared" si="2"/>
         <v>14.540</v>
       </c>
-      <c r="AD24" s="11" t="str">
+      <c r="AD24" s="10" t="str">
         <f t="shared" si="3"/>
         <v>14.381</v>
       </c>
-      <c r="AE24" s="11" t="str">
+      <c r="AE24" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.159</v>
       </c>
@@ -7458,19 +7440,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_effort_9</v>
       </c>
-      <c r="AB25" s="11" t="str">
+      <c r="AB25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.267</v>
       </c>
-      <c r="AC25" s="11" t="str">
+      <c r="AC25" s="10" t="str">
         <f t="shared" si="2"/>
         <v>14.339</v>
       </c>
-      <c r="AD25" s="11" t="str">
+      <c r="AD25" s="10" t="str">
         <f t="shared" si="3"/>
         <v>14.072</v>
       </c>
-      <c r="AE25" s="11" t="str">
+      <c r="AE25" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.267</v>
       </c>
@@ -7538,19 +7520,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_reading_time_in_a_weekdays_9</v>
       </c>
-      <c r="AB26" s="11" t="str">
+      <c r="AB26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.216</v>
       </c>
-      <c r="AC26" s="11" t="str">
+      <c r="AC26" s="10" t="str">
         <f t="shared" si="2"/>
         <v>4.060</v>
       </c>
-      <c r="AD26" s="11" t="str">
+      <c r="AD26" s="10" t="str">
         <f t="shared" si="3"/>
         <v>3.843</v>
       </c>
-      <c r="AE26" s="11" t="str">
+      <c r="AE26" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.216</v>
       </c>
@@ -7618,19 +7600,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_smart_phone_gaming_tv_time_9</v>
       </c>
-      <c r="AB27" s="11" t="str">
+      <c r="AB27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.132</v>
       </c>
-      <c r="AC27" s="11" t="str">
+      <c r="AC27" s="10" t="str">
         <f t="shared" si="2"/>
         <v>5.857</v>
       </c>
-      <c r="AD27" s="11" t="str">
+      <c r="AD27" s="10" t="str">
         <f t="shared" si="3"/>
         <v>5.725</v>
       </c>
-      <c r="AE27" s="11" t="str">
+      <c r="AE27" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.132</v>
       </c>
@@ -7698,19 +7680,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_lesson_time_9</v>
       </c>
-      <c r="AB28" s="11" t="str">
+      <c r="AB28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.013</v>
       </c>
-      <c r="AC28" s="11" t="str">
+      <c r="AC28" s="10" t="str">
         <f t="shared" si="2"/>
         <v>1.128</v>
       </c>
-      <c r="AD28" s="11" t="str">
+      <c r="AD28" s="10" t="str">
         <f t="shared" si="3"/>
         <v>1.115</v>
       </c>
-      <c r="AE28" s="11" t="str">
+      <c r="AE28" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.013</v>
       </c>
@@ -7778,19 +7760,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_playing_sport_9</v>
       </c>
-      <c r="AB29" s="11" t="str">
+      <c r="AB29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.055</v>
       </c>
-      <c r="AC29" s="11" t="str">
+      <c r="AC29" s="10" t="str">
         <f t="shared" si="2"/>
         <v>4.848</v>
       </c>
-      <c r="AD29" s="11" t="str">
+      <c r="AD29" s="10" t="str">
         <f t="shared" si="3"/>
         <v>4.792</v>
       </c>
-      <c r="AE29" s="11" t="str">
+      <c r="AE29" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.055</v>
       </c>
@@ -7858,19 +7840,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zgakuryoku_4</v>
       </c>
-      <c r="AB30" s="11" t="str">
+      <c r="AB30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.155</v>
       </c>
-      <c r="AC30" s="11" t="str">
+      <c r="AC30" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD30" s="11" t="str">
+      <c r="AD30" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.155</v>
       </c>
-      <c r="AE30" s="11" t="str">
+      <c r="AE30" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.155</v>
       </c>
@@ -7938,19 +7920,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zgakuryoku_5</v>
       </c>
-      <c r="AB31" s="11" t="str">
+      <c r="AB31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.210</v>
       </c>
-      <c r="AC31" s="11" t="str">
+      <c r="AC31" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD31" s="11" t="str">
+      <c r="AD31" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.210</v>
       </c>
-      <c r="AE31" s="11" t="str">
+      <c r="AE31" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.210</v>
       </c>
@@ -8018,19 +8000,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zgakuryoku_6</v>
       </c>
-      <c r="AB32" s="11" t="str">
+      <c r="AB32" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.159</v>
       </c>
-      <c r="AC32" s="11" t="str">
+      <c r="AC32" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD32" s="11" t="str">
+      <c r="AD32" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.160</v>
       </c>
-      <c r="AE32" s="11" t="str">
+      <c r="AE32" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.159</v>
       </c>
@@ -8098,19 +8080,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zgakuryoku_7</v>
       </c>
-      <c r="AB33" s="11" t="str">
+      <c r="AB33" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.160</v>
       </c>
-      <c r="AC33" s="11" t="str">
+      <c r="AC33" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD33" s="11" t="str">
+      <c r="AD33" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.161</v>
       </c>
-      <c r="AE33" s="11" t="str">
+      <c r="AE33" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.160</v>
       </c>
@@ -8178,19 +8160,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zgakuryoku_8</v>
       </c>
-      <c r="AB34" s="11" t="str">
+      <c r="AB34" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.165</v>
       </c>
-      <c r="AC34" s="11" t="str">
+      <c r="AC34" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD34" s="11" t="str">
+      <c r="AD34" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.165</v>
       </c>
-      <c r="AE34" s="11" t="str">
+      <c r="AE34" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.165</v>
       </c>
@@ -8258,19 +8240,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zkokugo_level_4</v>
       </c>
-      <c r="AB35" s="11" t="str">
+      <c r="AB35" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.189</v>
       </c>
-      <c r="AC35" s="11" t="str">
+      <c r="AC35" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD35" s="11" t="str">
+      <c r="AD35" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.189</v>
       </c>
-      <c r="AE35" s="11" t="str">
+      <c r="AE35" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.189</v>
       </c>
@@ -8338,19 +8320,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zkokugo_level_5</v>
       </c>
-      <c r="AB36" s="11" t="str">
+      <c r="AB36" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.209</v>
       </c>
-      <c r="AC36" s="11" t="str">
+      <c r="AC36" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD36" s="11" t="str">
+      <c r="AD36" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.209</v>
       </c>
-      <c r="AE36" s="11" t="str">
+      <c r="AE36" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.209</v>
       </c>
@@ -8418,19 +8400,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zkokugo_level_6</v>
       </c>
-      <c r="AB37" s="11" t="str">
+      <c r="AB37" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.167</v>
       </c>
-      <c r="AC37" s="11" t="str">
+      <c r="AC37" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD37" s="11" t="str">
+      <c r="AD37" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.167</v>
       </c>
-      <c r="AE37" s="11" t="str">
+      <c r="AE37" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.167</v>
       </c>
@@ -8498,19 +8480,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zkokugo_level_7</v>
       </c>
-      <c r="AB38" s="11" t="str">
+      <c r="AB38" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.148</v>
       </c>
-      <c r="AC38" s="11" t="str">
+      <c r="AC38" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD38" s="11" t="str">
+      <c r="AD38" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.148</v>
       </c>
-      <c r="AE38" s="11" t="str">
+      <c r="AE38" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.148</v>
       </c>
@@ -8578,19 +8560,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zkokugo_level_8</v>
       </c>
-      <c r="AB39" s="11" t="str">
+      <c r="AB39" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.159</v>
       </c>
-      <c r="AC39" s="11" t="str">
+      <c r="AC39" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD39" s="11" t="str">
+      <c r="AD39" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.159</v>
       </c>
-      <c r="AE39" s="11" t="str">
+      <c r="AE39" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.159</v>
       </c>
@@ -8658,19 +8640,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_4</v>
       </c>
-      <c r="AB40" s="11" t="str">
+      <c r="AB40" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.120</v>
       </c>
-      <c r="AC40" s="11" t="str">
+      <c r="AC40" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD40" s="11" t="str">
+      <c r="AD40" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.120</v>
       </c>
-      <c r="AE40" s="11" t="str">
+      <c r="AE40" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.120</v>
       </c>
@@ -8738,19 +8720,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_5</v>
       </c>
-      <c r="AB41" s="11" t="str">
+      <c r="AB41" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.212</v>
       </c>
-      <c r="AC41" s="11" t="str">
+      <c r="AC41" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD41" s="11" t="str">
+      <c r="AD41" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.212</v>
       </c>
-      <c r="AE41" s="11" t="str">
+      <c r="AE41" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.212</v>
       </c>
@@ -8818,19 +8800,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_6</v>
       </c>
-      <c r="AB42" s="11" t="str">
+      <c r="AB42" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.152</v>
       </c>
-      <c r="AC42" s="11" t="str">
+      <c r="AC42" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD42" s="11" t="str">
+      <c r="AD42" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.152</v>
       </c>
-      <c r="AE42" s="11" t="str">
+      <c r="AE42" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.152</v>
       </c>
@@ -8898,19 +8880,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_7</v>
       </c>
-      <c r="AB43" s="11" t="str">
+      <c r="AB43" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.173</v>
       </c>
-      <c r="AC43" s="11" t="str">
+      <c r="AC43" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD43" s="11" t="str">
+      <c r="AD43" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.173</v>
       </c>
-      <c r="AE43" s="11" t="str">
+      <c r="AE43" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.173</v>
       </c>
@@ -8978,19 +8960,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zmath_level_8</v>
       </c>
-      <c r="AB44" s="11" t="str">
+      <c r="AB44" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.170</v>
       </c>
-      <c r="AC44" s="11" t="str">
+      <c r="AC44" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD44" s="11" t="str">
+      <c r="AD44" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.170</v>
       </c>
-      <c r="AE44" s="11" t="str">
+      <c r="AE44" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.170</v>
       </c>
@@ -9058,19 +9040,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zeng_level_8</v>
       </c>
-      <c r="AB45" s="11" t="str">
+      <c r="AB45" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.216</v>
       </c>
-      <c r="AC45" s="11" t="str">
+      <c r="AC45" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD45" s="11" t="str">
+      <c r="AD45" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.216</v>
       </c>
-      <c r="AE45" s="11" t="str">
+      <c r="AE45" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.216</v>
       </c>
@@ -9138,19 +9120,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zstrategy_4</v>
       </c>
-      <c r="AB46" s="11" t="str">
+      <c r="AB46" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.000</v>
       </c>
-      <c r="AC46" s="11" t="str">
+      <c r="AC46" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD46" s="11" t="str">
+      <c r="AD46" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.000</v>
       </c>
-      <c r="AE46" s="11" t="str">
+      <c r="AE46" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.000</v>
       </c>
@@ -9218,19 +9200,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zstrategy_5</v>
       </c>
-      <c r="AB47" s="11" t="str">
+      <c r="AB47" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.060</v>
       </c>
-      <c r="AC47" s="11" t="str">
+      <c r="AC47" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD47" s="11" t="str">
+      <c r="AD47" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.060</v>
       </c>
-      <c r="AE47" s="11" t="str">
+      <c r="AE47" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.060</v>
       </c>
@@ -9298,19 +9280,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zstrategy_6</v>
       </c>
-      <c r="AB48" s="11" t="str">
+      <c r="AB48" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.052</v>
       </c>
-      <c r="AC48" s="11" t="str">
+      <c r="AC48" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD48" s="11" t="str">
+      <c r="AD48" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.052</v>
       </c>
-      <c r="AE48" s="11" t="str">
+      <c r="AE48" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.052</v>
       </c>
@@ -9378,19 +9360,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zstrategy_7</v>
       </c>
-      <c r="AB49" s="11" t="str">
+      <c r="AB49" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.109</v>
       </c>
-      <c r="AC49" s="11" t="str">
+      <c r="AC49" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD49" s="11" t="str">
+      <c r="AD49" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.109</v>
       </c>
-      <c r="AE49" s="11" t="str">
+      <c r="AE49" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.109</v>
       </c>
@@ -9458,19 +9440,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zstrategy_8</v>
       </c>
-      <c r="AB50" s="11" t="str">
+      <c r="AB50" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.113</v>
       </c>
-      <c r="AC50" s="11" t="str">
+      <c r="AC50" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD50" s="11" t="str">
+      <c r="AD50" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.113</v>
       </c>
-      <c r="AE50" s="11" t="str">
+      <c r="AE50" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.113</v>
       </c>
@@ -9538,19 +9520,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_4</v>
       </c>
-      <c r="AB51" s="11" t="str">
+      <c r="AB51" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.007</v>
       </c>
-      <c r="AC51" s="11" t="str">
+      <c r="AC51" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD51" s="11" t="str">
+      <c r="AD51" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.007</v>
       </c>
-      <c r="AE51" s="11" t="str">
+      <c r="AE51" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.007</v>
       </c>
@@ -9618,19 +9600,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_5</v>
       </c>
-      <c r="AB52" s="11" t="str">
+      <c r="AB52" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.029</v>
       </c>
-      <c r="AC52" s="11" t="str">
+      <c r="AC52" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD52" s="11" t="str">
+      <c r="AD52" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.029</v>
       </c>
-      <c r="AE52" s="11" t="str">
+      <c r="AE52" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.029</v>
       </c>
@@ -9698,19 +9680,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_6</v>
       </c>
-      <c r="AB53" s="11" t="str">
+      <c r="AB53" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.133</v>
       </c>
-      <c r="AC53" s="11" t="str">
+      <c r="AC53" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD53" s="11" t="str">
+      <c r="AD53" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.133</v>
       </c>
-      <c r="AE53" s="11" t="str">
+      <c r="AE53" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.133</v>
       </c>
@@ -9778,19 +9760,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_7</v>
       </c>
-      <c r="AB54" s="11" t="str">
+      <c r="AB54" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.160</v>
       </c>
-      <c r="AC54" s="11" t="str">
+      <c r="AC54" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD54" s="11" t="str">
+      <c r="AD54" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.160</v>
       </c>
-      <c r="AE54" s="11" t="str">
+      <c r="AE54" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.160</v>
       </c>
@@ -9858,19 +9840,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zselfcontrol_8</v>
       </c>
-      <c r="AB55" s="11" t="str">
+      <c r="AB55" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.182</v>
       </c>
-      <c r="AC55" s="11" t="str">
+      <c r="AC55" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD55" s="11" t="str">
+      <c r="AD55" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.182</v>
       </c>
-      <c r="AE55" s="11" t="str">
+      <c r="AE55" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.182</v>
       </c>
@@ -9938,19 +9920,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zselfefficacy_5</v>
       </c>
-      <c r="AB56" s="11" t="str">
+      <c r="AB56" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.042</v>
       </c>
-      <c r="AC56" s="11" t="str">
+      <c r="AC56" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD56" s="11" t="str">
+      <c r="AD56" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.042</v>
       </c>
-      <c r="AE56" s="11" t="str">
+      <c r="AE56" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.042</v>
       </c>
@@ -10018,19 +10000,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zselfefficacy_6</v>
       </c>
-      <c r="AB57" s="11" t="str">
+      <c r="AB57" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.063</v>
       </c>
-      <c r="AC57" s="11" t="str">
+      <c r="AC57" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD57" s="11" t="str">
+      <c r="AD57" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.063</v>
       </c>
-      <c r="AE57" s="11" t="str">
+      <c r="AE57" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.063</v>
       </c>
@@ -10098,19 +10080,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zselfefficacy_7</v>
       </c>
-      <c r="AB58" s="11" t="str">
+      <c r="AB58" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.074</v>
       </c>
-      <c r="AC58" s="11" t="str">
+      <c r="AC58" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD58" s="11" t="str">
+      <c r="AD58" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.074</v>
       </c>
-      <c r="AE58" s="11" t="str">
+      <c r="AE58" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.074</v>
       </c>
@@ -10178,19 +10160,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zselfefficacy_8</v>
       </c>
-      <c r="AB59" s="11" t="str">
+      <c r="AB59" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.036</v>
       </c>
-      <c r="AC59" s="11" t="str">
+      <c r="AC59" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD59" s="11" t="str">
+      <c r="AD59" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.036</v>
       </c>
-      <c r="AE59" s="11" t="str">
+      <c r="AE59" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.036</v>
       </c>
@@ -10258,19 +10240,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zdilligence_6</v>
       </c>
-      <c r="AB60" s="11" t="str">
+      <c r="AB60" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.045</v>
       </c>
-      <c r="AC60" s="11" t="str">
+      <c r="AC60" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD60" s="11" t="str">
+      <c r="AD60" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.045</v>
       </c>
-      <c r="AE60" s="11" t="str">
+      <c r="AE60" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.045</v>
       </c>
@@ -10338,19 +10320,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zdilligence_7</v>
       </c>
-      <c r="AB61" s="11" t="str">
+      <c r="AB61" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.082</v>
       </c>
-      <c r="AC61" s="11" t="str">
+      <c r="AC61" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD61" s="11" t="str">
+      <c r="AD61" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.082</v>
       </c>
-      <c r="AE61" s="11" t="str">
+      <c r="AE61" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.082</v>
       </c>
@@ -10418,19 +10400,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_zdilligence_8</v>
       </c>
-      <c r="AB62" s="11" t="str">
+      <c r="AB62" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.118</v>
       </c>
-      <c r="AC62" s="11" t="str">
+      <c r="AC62" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.000</v>
       </c>
-      <c r="AD62" s="11" t="str">
+      <c r="AD62" s="10" t="str">
         <f t="shared" si="3"/>
         <v>-0.118</v>
       </c>
-      <c r="AE62" s="11" t="str">
+      <c r="AE62" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.118</v>
       </c>
@@ -10498,19 +10480,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_girl_4</v>
       </c>
-      <c r="AB63" s="11" t="str">
+      <c r="AB63" s="10" t="str">
         <f t="shared" si="1"/>
         <v>-0.005</v>
       </c>
-      <c r="AC63" s="11" t="str">
+      <c r="AC63" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.499</v>
       </c>
-      <c r="AD63" s="11" t="str">
+      <c r="AD63" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.504</v>
       </c>
-      <c r="AE63" s="11" t="str">
+      <c r="AE63" s="10" t="str">
         <f t="shared" si="4"/>
         <v>-0.005</v>
       </c>
@@ -10578,19 +10560,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_girl_5</v>
       </c>
-      <c r="AB64" s="11" t="str">
+      <c r="AB64" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.002</v>
       </c>
-      <c r="AC64" s="11" t="str">
+      <c r="AC64" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.500</v>
       </c>
-      <c r="AD64" s="11" t="str">
+      <c r="AD64" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.498</v>
       </c>
-      <c r="AE64" s="11" t="str">
+      <c r="AE64" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.002</v>
       </c>
@@ -10658,19 +10640,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_girl_6</v>
       </c>
-      <c r="AB65" s="11" t="str">
+      <c r="AB65" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.007</v>
       </c>
-      <c r="AC65" s="11" t="str">
+      <c r="AC65" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.498</v>
       </c>
-      <c r="AD65" s="11" t="str">
+      <c r="AD65" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.491</v>
       </c>
-      <c r="AE65" s="11" t="str">
+      <c r="AE65" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.007</v>
       </c>
@@ -10738,19 +10720,19 @@
         <f t="shared" si="0"/>
         <v>mean_test_girl_7</v>
       </c>
-      <c r="AB66" s="11" t="str">
+      <c r="AB66" s="10" t="str">
         <f t="shared" si="1"/>
         <v>0.007</v>
       </c>
-      <c r="AC66" s="11" t="str">
+      <c r="AC66" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0.496</v>
       </c>
-      <c r="AD66" s="11" t="str">
+      <c r="AD66" s="10" t="str">
         <f t="shared" si="3"/>
         <v>0.489</v>
       </c>
-      <c r="AE66" s="11" t="str">
+      <c r="AE66" s="10" t="str">
         <f t="shared" si="4"/>
         <v>0.007</v>
       </c>
@@ -10818,19 +10800,19 @@
         <f t="shared" ref="AA67:AA130" si="6">N67</f>
         <v>mean_test_girl_8</v>
       </c>
-      <c r="AB67" s="11" t="str">
+      <c r="AB67" s="10" t="str">
         <f t="shared" ref="AB67:AB130" si="7">TEXT(B67, "0.000")</f>
         <v>0.010</v>
       </c>
-      <c r="AC67" s="11" t="str">
+      <c r="AC67" s="10" t="str">
         <f t="shared" ref="AC67:AC130" si="8">TEXT(C67, "0.000")</f>
         <v>0.495</v>
       </c>
-      <c r="AD67" s="11" t="str">
+      <c r="AD67" s="10" t="str">
         <f t="shared" ref="AD67:AD130" si="9">TEXT(D67, "0.000")</f>
         <v>0.485</v>
       </c>
-      <c r="AE67" s="11" t="str">
+      <c r="AE67" s="10" t="str">
         <f t="shared" ref="AE67:AE130" si="10">TEXT(B67,"0.000")</f>
         <v>0.010</v>
       </c>
@@ -10898,19 +10880,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_no_book_4</v>
       </c>
-      <c r="AB68" s="11" t="str">
+      <c r="AB68" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.015</v>
       </c>
-      <c r="AC68" s="11" t="str">
+      <c r="AC68" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.118</v>
       </c>
-      <c r="AD68" s="11" t="str">
+      <c r="AD68" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0.102</v>
       </c>
-      <c r="AE68" s="11" t="str">
+      <c r="AE68" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.015</v>
       </c>
@@ -10978,19 +10960,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_no_book_5</v>
       </c>
-      <c r="AB69" s="11" t="str">
+      <c r="AB69" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.010</v>
       </c>
-      <c r="AC69" s="11" t="str">
+      <c r="AC69" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.090</v>
       </c>
-      <c r="AD69" s="11" t="str">
+      <c r="AD69" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0.079</v>
       </c>
-      <c r="AE69" s="11" t="str">
+      <c r="AE69" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.010</v>
       </c>
@@ -11058,19 +11040,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_no_book_6</v>
       </c>
-      <c r="AB70" s="11" t="str">
+      <c r="AB70" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.014</v>
       </c>
-      <c r="AC70" s="11" t="str">
+      <c r="AC70" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.078</v>
       </c>
-      <c r="AD70" s="11" t="str">
+      <c r="AD70" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0.064</v>
       </c>
-      <c r="AE70" s="11" t="str">
+      <c r="AE70" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.014</v>
       </c>
@@ -11138,19 +11120,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_no_book_7</v>
       </c>
-      <c r="AB71" s="11" t="str">
+      <c r="AB71" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.016</v>
       </c>
-      <c r="AC71" s="11" t="str">
+      <c r="AC71" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.112</v>
       </c>
-      <c r="AD71" s="11" t="str">
+      <c r="AD71" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0.096</v>
       </c>
-      <c r="AE71" s="11" t="str">
+      <c r="AE71" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.016</v>
       </c>
@@ -11218,19 +11200,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_no_book_8</v>
       </c>
-      <c r="AB72" s="11" t="str">
+      <c r="AB72" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.007</v>
       </c>
-      <c r="AC72" s="11" t="str">
+      <c r="AC72" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.122</v>
       </c>
-      <c r="AD72" s="11" t="str">
+      <c r="AD72" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0.115</v>
       </c>
-      <c r="AE72" s="11" t="str">
+      <c r="AE72" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.007</v>
       </c>
@@ -11298,19 +11280,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_cram_4</v>
       </c>
-      <c r="AB73" s="11" t="str">
+      <c r="AB73" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.029</v>
       </c>
-      <c r="AC73" s="11" t="str">
+      <c r="AC73" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.577</v>
       </c>
-      <c r="AD73" s="11" t="str">
+      <c r="AD73" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0.605</v>
       </c>
-      <c r="AE73" s="11" t="str">
+      <c r="AE73" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.029</v>
       </c>
@@ -11378,19 +11360,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_cram_5</v>
       </c>
-      <c r="AB74" s="11" t="str">
+      <c r="AB74" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.029</v>
       </c>
-      <c r="AC74" s="11" t="str">
+      <c r="AC74" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.542</v>
       </c>
-      <c r="AD74" s="11" t="str">
+      <c r="AD74" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0.572</v>
       </c>
-      <c r="AE74" s="11" t="str">
+      <c r="AE74" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.029</v>
       </c>
@@ -11458,19 +11440,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_cram_6</v>
       </c>
-      <c r="AB75" s="11" t="str">
+      <c r="AB75" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.039</v>
       </c>
-      <c r="AC75" s="11" t="str">
+      <c r="AC75" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.543</v>
       </c>
-      <c r="AD75" s="11" t="str">
+      <c r="AD75" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0.582</v>
       </c>
-      <c r="AE75" s="11" t="str">
+      <c r="AE75" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.039</v>
       </c>
@@ -11538,19 +11520,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_cram_7</v>
       </c>
-      <c r="AB76" s="11" t="str">
+      <c r="AB76" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.034</v>
       </c>
-      <c r="AC76" s="11" t="str">
+      <c r="AC76" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.544</v>
       </c>
-      <c r="AD76" s="11" t="str">
+      <c r="AD76" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0.578</v>
       </c>
-      <c r="AE76" s="11" t="str">
+      <c r="AE76" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.034</v>
       </c>
@@ -11618,19 +11600,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_cram_8</v>
       </c>
-      <c r="AB77" s="11" t="str">
+      <c r="AB77" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.011</v>
       </c>
-      <c r="AC77" s="11" t="str">
+      <c r="AC77" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.598</v>
       </c>
-      <c r="AD77" s="11" t="str">
+      <c r="AD77" s="10" t="str">
         <f t="shared" si="9"/>
         <v>0.609</v>
       </c>
-      <c r="AE77" s="11" t="str">
+      <c r="AE77" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.011</v>
       </c>
@@ -11698,19 +11680,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_relative_age_4</v>
       </c>
-      <c r="AB78" s="11" t="str">
+      <c r="AB78" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.016</v>
       </c>
-      <c r="AC78" s="11" t="str">
+      <c r="AC78" s="10" t="str">
         <f t="shared" si="8"/>
         <v>5.587</v>
       </c>
-      <c r="AD78" s="11" t="str">
+      <c r="AD78" s="10" t="str">
         <f t="shared" si="9"/>
         <v>5.572</v>
       </c>
-      <c r="AE78" s="11" t="str">
+      <c r="AE78" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.016</v>
       </c>
@@ -11778,19 +11760,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_relative_age_5</v>
       </c>
-      <c r="AB79" s="11" t="str">
+      <c r="AB79" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.039</v>
       </c>
-      <c r="AC79" s="11" t="str">
+      <c r="AC79" s="10" t="str">
         <f t="shared" si="8"/>
         <v>5.593</v>
       </c>
-      <c r="AD79" s="11" t="str">
+      <c r="AD79" s="10" t="str">
         <f t="shared" si="9"/>
         <v>5.554</v>
       </c>
-      <c r="AE79" s="11" t="str">
+      <c r="AE79" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.039</v>
       </c>
@@ -11858,19 +11840,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_relative_age_6</v>
       </c>
-      <c r="AB80" s="11" t="str">
+      <c r="AB80" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.017</v>
       </c>
-      <c r="AC80" s="11" t="str">
+      <c r="AC80" s="10" t="str">
         <f t="shared" si="8"/>
         <v>5.594</v>
       </c>
-      <c r="AD80" s="11" t="str">
+      <c r="AD80" s="10" t="str">
         <f t="shared" si="9"/>
         <v>5.577</v>
       </c>
-      <c r="AE80" s="11" t="str">
+      <c r="AE80" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.017</v>
       </c>
@@ -11938,19 +11920,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_relative_age_7</v>
       </c>
-      <c r="AB81" s="11" t="str">
+      <c r="AB81" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.031</v>
       </c>
-      <c r="AC81" s="11" t="str">
+      <c r="AC81" s="10" t="str">
         <f t="shared" si="8"/>
         <v>5.583</v>
       </c>
-      <c r="AD81" s="11" t="str">
+      <c r="AD81" s="10" t="str">
         <f t="shared" si="9"/>
         <v>5.552</v>
       </c>
-      <c r="AE81" s="11" t="str">
+      <c r="AE81" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.031</v>
       </c>
@@ -12018,19 +12000,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_relative_age_8</v>
       </c>
-      <c r="AB82" s="11" t="str">
+      <c r="AB82" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.026</v>
       </c>
-      <c r="AC82" s="11" t="str">
+      <c r="AC82" s="10" t="str">
         <f t="shared" si="8"/>
         <v>5.571</v>
       </c>
-      <c r="AD82" s="11" t="str">
+      <c r="AD82" s="10" t="str">
         <f t="shared" si="9"/>
         <v>5.545</v>
       </c>
-      <c r="AE82" s="11" t="str">
+      <c r="AE82" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.026</v>
       </c>
@@ -12098,19 +12080,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_hourshome_4</v>
       </c>
-      <c r="AB83" s="11" t="str">
+      <c r="AB83" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.093</v>
       </c>
-      <c r="AC83" s="11" t="str">
+      <c r="AC83" s="10" t="str">
         <f t="shared" si="8"/>
         <v>5.694</v>
       </c>
-      <c r="AD83" s="11" t="str">
+      <c r="AD83" s="10" t="str">
         <f t="shared" si="9"/>
         <v>5.787</v>
       </c>
-      <c r="AE83" s="11" t="str">
+      <c r="AE83" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.093</v>
       </c>
@@ -12178,19 +12160,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_hourshome_5</v>
       </c>
-      <c r="AB84" s="11" t="str">
+      <c r="AB84" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.201</v>
       </c>
-      <c r="AC84" s="11" t="str">
+      <c r="AC84" s="10" t="str">
         <f t="shared" si="8"/>
         <v>6.171</v>
       </c>
-      <c r="AD84" s="11" t="str">
+      <c r="AD84" s="10" t="str">
         <f t="shared" si="9"/>
         <v>6.372</v>
       </c>
-      <c r="AE84" s="11" t="str">
+      <c r="AE84" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.201</v>
       </c>
@@ -12258,19 +12240,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_hourshome_6</v>
       </c>
-      <c r="AB85" s="11" t="str">
+      <c r="AB85" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.163</v>
       </c>
-      <c r="AC85" s="11" t="str">
+      <c r="AC85" s="10" t="str">
         <f t="shared" si="8"/>
         <v>6.719</v>
       </c>
-      <c r="AD85" s="11" t="str">
+      <c r="AD85" s="10" t="str">
         <f t="shared" si="9"/>
         <v>6.882</v>
       </c>
-      <c r="AE85" s="11" t="str">
+      <c r="AE85" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.163</v>
       </c>
@@ -12338,19 +12320,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_hourshome_7</v>
       </c>
-      <c r="AB86" s="11" t="str">
+      <c r="AB86" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.409</v>
       </c>
-      <c r="AC86" s="11" t="str">
+      <c r="AC86" s="10" t="str">
         <f t="shared" si="8"/>
         <v>6.458</v>
       </c>
-      <c r="AD86" s="11" t="str">
+      <c r="AD86" s="10" t="str">
         <f t="shared" si="9"/>
         <v>6.049</v>
       </c>
-      <c r="AE86" s="11" t="str">
+      <c r="AE86" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.409</v>
       </c>
@@ -12418,19 +12400,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_hourshome_8</v>
       </c>
-      <c r="AB87" s="11" t="str">
+      <c r="AB87" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.373</v>
       </c>
-      <c r="AC87" s="11" t="str">
+      <c r="AC87" s="10" t="str">
         <f t="shared" si="8"/>
         <v>6.327</v>
       </c>
-      <c r="AD87" s="11" t="str">
+      <c r="AD87" s="10" t="str">
         <f t="shared" si="9"/>
         <v>5.955</v>
       </c>
-      <c r="AE87" s="11" t="str">
+      <c r="AE87" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.373</v>
       </c>
@@ -12498,19 +12480,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_hoursprep_4</v>
       </c>
-      <c r="AB88" s="11" t="str">
+      <c r="AB88" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.280</v>
       </c>
-      <c r="AC88" s="11" t="str">
+      <c r="AC88" s="10" t="str">
         <f t="shared" si="8"/>
         <v>3.384</v>
       </c>
-      <c r="AD88" s="11" t="str">
+      <c r="AD88" s="10" t="str">
         <f t="shared" si="9"/>
         <v>3.664</v>
       </c>
-      <c r="AE88" s="11" t="str">
+      <c r="AE88" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.280</v>
       </c>
@@ -12578,19 +12560,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_hoursprep_5</v>
       </c>
-      <c r="AB89" s="11" t="str">
+      <c r="AB89" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.397</v>
       </c>
-      <c r="AC89" s="11" t="str">
+      <c r="AC89" s="10" t="str">
         <f t="shared" si="8"/>
         <v>3.160</v>
       </c>
-      <c r="AD89" s="11" t="str">
+      <c r="AD89" s="10" t="str">
         <f t="shared" si="9"/>
         <v>3.558</v>
       </c>
-      <c r="AE89" s="11" t="str">
+      <c r="AE89" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.397</v>
       </c>
@@ -12658,19 +12640,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_hoursprep_6</v>
       </c>
-      <c r="AB90" s="11" t="str">
+      <c r="AB90" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.384</v>
       </c>
-      <c r="AC90" s="11" t="str">
+      <c r="AC90" s="10" t="str">
         <f t="shared" si="8"/>
         <v>3.010</v>
       </c>
-      <c r="AD90" s="11" t="str">
+      <c r="AD90" s="10" t="str">
         <f t="shared" si="9"/>
         <v>3.394</v>
       </c>
-      <c r="AE90" s="11" t="str">
+      <c r="AE90" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.384</v>
       </c>
@@ -12738,19 +12720,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_hoursprep_7</v>
       </c>
-      <c r="AB91" s="11" t="str">
+      <c r="AB91" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.235</v>
       </c>
-      <c r="AC91" s="11" t="str">
+      <c r="AC91" s="10" t="str">
         <f t="shared" si="8"/>
         <v>2.944</v>
       </c>
-      <c r="AD91" s="11" t="str">
+      <c r="AD91" s="10" t="str">
         <f t="shared" si="9"/>
         <v>3.179</v>
       </c>
-      <c r="AE91" s="11" t="str">
+      <c r="AE91" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.235</v>
       </c>
@@ -12818,19 +12800,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_hoursprep_8</v>
       </c>
-      <c r="AB92" s="11" t="str">
+      <c r="AB92" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.144</v>
       </c>
-      <c r="AC92" s="11" t="str">
+      <c r="AC92" s="10" t="str">
         <f t="shared" si="8"/>
         <v>3.318</v>
       </c>
-      <c r="AD92" s="11" t="str">
+      <c r="AD92" s="10" t="str">
         <f t="shared" si="9"/>
         <v>3.462</v>
       </c>
-      <c r="AE92" s="11" t="str">
+      <c r="AE92" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.144</v>
       </c>
@@ -12898,19 +12880,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_studytime_4</v>
       </c>
-      <c r="AB93" s="11" t="str">
+      <c r="AB93" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.358</v>
       </c>
-      <c r="AC93" s="11" t="str">
+      <c r="AC93" s="10" t="str">
         <f t="shared" si="8"/>
         <v>9.061</v>
       </c>
-      <c r="AD93" s="11" t="str">
+      <c r="AD93" s="10" t="str">
         <f t="shared" si="9"/>
         <v>9.419</v>
       </c>
-      <c r="AE93" s="11" t="str">
+      <c r="AE93" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.358</v>
       </c>
@@ -12978,19 +12960,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_studytime_5</v>
       </c>
-      <c r="AB94" s="11" t="str">
+      <c r="AB94" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.607</v>
       </c>
-      <c r="AC94" s="11" t="str">
+      <c r="AC94" s="10" t="str">
         <f t="shared" si="8"/>
         <v>9.328</v>
       </c>
-      <c r="AD94" s="11" t="str">
+      <c r="AD94" s="10" t="str">
         <f t="shared" si="9"/>
         <v>9.935</v>
       </c>
-      <c r="AE94" s="11" t="str">
+      <c r="AE94" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.607</v>
       </c>
@@ -13058,19 +13040,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_studytime_6</v>
       </c>
-      <c r="AB95" s="11" t="str">
+      <c r="AB95" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.547</v>
       </c>
-      <c r="AC95" s="11" t="str">
+      <c r="AC95" s="10" t="str">
         <f t="shared" si="8"/>
         <v>9.726</v>
       </c>
-      <c r="AD95" s="11" t="str">
+      <c r="AD95" s="10" t="str">
         <f t="shared" si="9"/>
         <v>10.273</v>
       </c>
-      <c r="AE95" s="11" t="str">
+      <c r="AE95" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.547</v>
       </c>
@@ -13138,19 +13120,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_studytime_7</v>
       </c>
-      <c r="AB96" s="11" t="str">
+      <c r="AB96" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.172</v>
       </c>
-      <c r="AC96" s="11" t="str">
+      <c r="AC96" s="10" t="str">
         <f t="shared" si="8"/>
         <v>9.400</v>
       </c>
-      <c r="AD96" s="11" t="str">
+      <c r="AD96" s="10" t="str">
         <f t="shared" si="9"/>
         <v>9.228</v>
       </c>
-      <c r="AE96" s="11" t="str">
+      <c r="AE96" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.172</v>
       </c>
@@ -13218,19 +13200,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_studytime_8</v>
       </c>
-      <c r="AB97" s="11" t="str">
+      <c r="AB97" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.235</v>
       </c>
-      <c r="AC97" s="11" t="str">
+      <c r="AC97" s="10" t="str">
         <f t="shared" si="8"/>
         <v>9.641</v>
       </c>
-      <c r="AD97" s="11" t="str">
+      <c r="AD97" s="10" t="str">
         <f t="shared" si="9"/>
         <v>9.406</v>
       </c>
-      <c r="AE97" s="11" t="str">
+      <c r="AE97" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.235</v>
       </c>
@@ -13298,19 +13280,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_teacherrelation_4</v>
       </c>
-      <c r="AB98" s="11" t="str">
+      <c r="AB98" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.072</v>
       </c>
-      <c r="AC98" s="11" t="str">
+      <c r="AC98" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD98" s="11" t="str">
+      <c r="AD98" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.072</v>
       </c>
-      <c r="AE98" s="11" t="str">
+      <c r="AE98" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.072</v>
       </c>
@@ -13378,19 +13360,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_teacherrelation_5</v>
       </c>
-      <c r="AB99" s="11" t="str">
+      <c r="AB99" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.087</v>
       </c>
-      <c r="AC99" s="11" t="str">
+      <c r="AC99" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD99" s="11" t="str">
+      <c r="AD99" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.087</v>
       </c>
-      <c r="AE99" s="11" t="str">
+      <c r="AE99" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.087</v>
       </c>
@@ -13458,19 +13440,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_teacherrelation_6</v>
       </c>
-      <c r="AB100" s="11" t="str">
+      <c r="AB100" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.159</v>
       </c>
-      <c r="AC100" s="11" t="str">
+      <c r="AC100" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD100" s="11" t="str">
+      <c r="AD100" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.159</v>
       </c>
-      <c r="AE100" s="11" t="str">
+      <c r="AE100" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.159</v>
       </c>
@@ -13538,19 +13520,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_teacherrelation_7</v>
       </c>
-      <c r="AB101" s="11" t="str">
+      <c r="AB101" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.186</v>
       </c>
-      <c r="AC101" s="11" t="str">
+      <c r="AC101" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD101" s="11" t="str">
+      <c r="AD101" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.186</v>
       </c>
-      <c r="AE101" s="11" t="str">
+      <c r="AE101" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.186</v>
       </c>
@@ -13618,19 +13600,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_teacherrelation_8</v>
       </c>
-      <c r="AB102" s="11" t="str">
+      <c r="AB102" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.199</v>
       </c>
-      <c r="AC102" s="11" t="str">
+      <c r="AC102" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD102" s="11" t="str">
+      <c r="AD102" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.199</v>
       </c>
-      <c r="AE102" s="11" t="str">
+      <c r="AE102" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.199</v>
       </c>
@@ -13698,19 +13680,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_zfriendrelation_4</v>
       </c>
-      <c r="AB103" s="11" t="str">
+      <c r="AB103" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.067</v>
       </c>
-      <c r="AC103" s="11" t="str">
+      <c r="AC103" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD103" s="11" t="str">
+      <c r="AD103" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.067</v>
       </c>
-      <c r="AE103" s="11" t="str">
+      <c r="AE103" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.067</v>
       </c>
@@ -13778,19 +13760,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_zfriendrelation_5</v>
       </c>
-      <c r="AB104" s="11" t="str">
+      <c r="AB104" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.043</v>
       </c>
-      <c r="AC104" s="11" t="str">
+      <c r="AC104" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD104" s="11" t="str">
+      <c r="AD104" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.043</v>
       </c>
-      <c r="AE104" s="11" t="str">
+      <c r="AE104" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.043</v>
       </c>
@@ -13858,19 +13840,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_zfriendrelation_6</v>
       </c>
-      <c r="AB105" s="11" t="str">
+      <c r="AB105" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.109</v>
       </c>
-      <c r="AC105" s="11" t="str">
+      <c r="AC105" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD105" s="11" t="str">
+      <c r="AD105" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.109</v>
       </c>
-      <c r="AE105" s="11" t="str">
+      <c r="AE105" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.109</v>
       </c>
@@ -13938,19 +13920,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_zfriendrelation_7</v>
       </c>
-      <c r="AB106" s="11" t="str">
+      <c r="AB106" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.099</v>
       </c>
-      <c r="AC106" s="11" t="str">
+      <c r="AC106" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD106" s="11" t="str">
+      <c r="AD106" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.099</v>
       </c>
-      <c r="AE106" s="11" t="str">
+      <c r="AE106" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.099</v>
       </c>
@@ -14018,19 +14000,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_zfriendrelation_8</v>
       </c>
-      <c r="AB107" s="11" t="str">
+      <c r="AB107" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.093</v>
       </c>
-      <c r="AC107" s="11" t="str">
+      <c r="AC107" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD107" s="11" t="str">
+      <c r="AD107" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.093</v>
       </c>
-      <c r="AE107" s="11" t="str">
+      <c r="AE107" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.093</v>
       </c>
@@ -14098,19 +14080,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_teacherrelation2_4</v>
       </c>
-      <c r="AB108" s="11" t="str">
+      <c r="AB108" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.067</v>
       </c>
-      <c r="AC108" s="11" t="str">
+      <c r="AC108" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.001</v>
       </c>
-      <c r="AD108" s="11" t="str">
+      <c r="AD108" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.066</v>
       </c>
-      <c r="AE108" s="11" t="str">
+      <c r="AE108" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.067</v>
       </c>
@@ -14178,19 +14160,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_teacherrelation2_5</v>
       </c>
-      <c r="AB109" s="11" t="str">
+      <c r="AB109" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.079</v>
       </c>
-      <c r="AC109" s="11" t="str">
+      <c r="AC109" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD109" s="11" t="str">
+      <c r="AD109" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.079</v>
       </c>
-      <c r="AE109" s="11" t="str">
+      <c r="AE109" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.079</v>
       </c>
@@ -14258,19 +14240,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_teacherrelation2_6</v>
       </c>
-      <c r="AB110" s="11" t="str">
+      <c r="AB110" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.094</v>
       </c>
-      <c r="AC110" s="11" t="str">
+      <c r="AC110" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD110" s="11" t="str">
+      <c r="AD110" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.094</v>
       </c>
-      <c r="AE110" s="11" t="str">
+      <c r="AE110" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.094</v>
       </c>
@@ -14338,19 +14320,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_teacherrelation2_7</v>
       </c>
-      <c r="AB111" s="11" t="str">
+      <c r="AB111" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.192</v>
       </c>
-      <c r="AC111" s="11" t="str">
+      <c r="AC111" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD111" s="11" t="str">
+      <c r="AD111" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.191</v>
       </c>
-      <c r="AE111" s="11" t="str">
+      <c r="AE111" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.192</v>
       </c>
@@ -14418,19 +14400,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_teacherrelation2_8</v>
       </c>
-      <c r="AB112" s="11" t="str">
+      <c r="AB112" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.191</v>
       </c>
-      <c r="AC112" s="11" t="str">
+      <c r="AC112" s="10" t="str">
         <f t="shared" si="8"/>
         <v>0.000</v>
       </c>
-      <c r="AD112" s="11" t="str">
+      <c r="AD112" s="10" t="str">
         <f t="shared" si="9"/>
         <v>-0.191</v>
       </c>
-      <c r="AE112" s="11" t="str">
+      <c r="AE112" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.191</v>
       </c>
@@ -14498,19 +14480,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_zyunan_4</v>
       </c>
-      <c r="AB113" s="11" t="str">
+      <c r="AB113" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.073</v>
       </c>
-      <c r="AC113" s="11" t="str">
+      <c r="AC113" s="10" t="str">
         <f t="shared" si="8"/>
         <v>14.129</v>
       </c>
-      <c r="AD113" s="11" t="str">
+      <c r="AD113" s="10" t="str">
         <f t="shared" si="9"/>
         <v>14.202</v>
       </c>
-      <c r="AE113" s="11" t="str">
+      <c r="AE113" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.073</v>
       </c>
@@ -14578,19 +14560,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_zyunan_5</v>
       </c>
-      <c r="AB114" s="11" t="str">
+      <c r="AB114" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.171</v>
       </c>
-      <c r="AC114" s="11" t="str">
+      <c r="AC114" s="10" t="str">
         <f t="shared" si="8"/>
         <v>13.900</v>
       </c>
-      <c r="AD114" s="11" t="str">
+      <c r="AD114" s="10" t="str">
         <f t="shared" si="9"/>
         <v>13.729</v>
       </c>
-      <c r="AE114" s="11" t="str">
+      <c r="AE114" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.171</v>
       </c>
@@ -14658,19 +14640,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_zyunan_6</v>
       </c>
-      <c r="AB115" s="11" t="str">
+      <c r="AB115" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.167</v>
       </c>
-      <c r="AC115" s="11" t="str">
+      <c r="AC115" s="10" t="str">
         <f t="shared" si="8"/>
         <v>14.076</v>
       </c>
-      <c r="AD115" s="11" t="str">
+      <c r="AD115" s="10" t="str">
         <f t="shared" si="9"/>
         <v>13.909</v>
       </c>
-      <c r="AE115" s="11" t="str">
+      <c r="AE115" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.167</v>
       </c>
@@ -14738,19 +14720,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_zyunan_7</v>
       </c>
-      <c r="AB116" s="11" t="str">
+      <c r="AB116" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.355</v>
       </c>
-      <c r="AC116" s="11" t="str">
+      <c r="AC116" s="10" t="str">
         <f t="shared" si="8"/>
         <v>14.281</v>
       </c>
-      <c r="AD116" s="11" t="str">
+      <c r="AD116" s="10" t="str">
         <f t="shared" si="9"/>
         <v>13.927</v>
       </c>
-      <c r="AE116" s="11" t="str">
+      <c r="AE116" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.355</v>
       </c>
@@ -14818,19 +14800,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_zyunan_8</v>
       </c>
-      <c r="AB117" s="11" t="str">
+      <c r="AB117" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.260</v>
       </c>
-      <c r="AC117" s="11" t="str">
+      <c r="AC117" s="10" t="str">
         <f t="shared" si="8"/>
         <v>13.678</v>
       </c>
-      <c r="AD117" s="11" t="str">
+      <c r="AD117" s="10" t="str">
         <f t="shared" si="9"/>
         <v>13.418</v>
       </c>
-      <c r="AE117" s="11" t="str">
+      <c r="AE117" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.260</v>
       </c>
@@ -14898,19 +14880,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_planning_4</v>
       </c>
-      <c r="AB118" s="11" t="str">
+      <c r="AB118" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.067</v>
       </c>
-      <c r="AC118" s="11" t="str">
+      <c r="AC118" s="10" t="str">
         <f t="shared" si="8"/>
         <v>14.277</v>
       </c>
-      <c r="AD118" s="11" t="str">
+      <c r="AD118" s="10" t="str">
         <f t="shared" si="9"/>
         <v>14.344</v>
       </c>
-      <c r="AE118" s="11" t="str">
+      <c r="AE118" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.067</v>
       </c>
@@ -14978,19 +14960,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_planning_5</v>
       </c>
-      <c r="AB119" s="11" t="str">
+      <c r="AB119" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.126</v>
       </c>
-      <c r="AC119" s="11" t="str">
+      <c r="AC119" s="10" t="str">
         <f t="shared" si="8"/>
         <v>14.218</v>
       </c>
-      <c r="AD119" s="11" t="str">
+      <c r="AD119" s="10" t="str">
         <f t="shared" si="9"/>
         <v>14.093</v>
       </c>
-      <c r="AE119" s="11" t="str">
+      <c r="AE119" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.126</v>
       </c>
@@ -15058,19 +15040,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_planning_6</v>
       </c>
-      <c r="AB120" s="11" t="str">
+      <c r="AB120" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.139</v>
       </c>
-      <c r="AC120" s="11" t="str">
+      <c r="AC120" s="10" t="str">
         <f t="shared" si="8"/>
         <v>14.334</v>
       </c>
-      <c r="AD120" s="11" t="str">
+      <c r="AD120" s="10" t="str">
         <f t="shared" si="9"/>
         <v>14.195</v>
       </c>
-      <c r="AE120" s="11" t="str">
+      <c r="AE120" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.139</v>
       </c>
@@ -15138,19 +15120,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_planning_7</v>
       </c>
-      <c r="AB121" s="11" t="str">
+      <c r="AB121" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.295</v>
       </c>
-      <c r="AC121" s="11" t="str">
+      <c r="AC121" s="10" t="str">
         <f t="shared" si="8"/>
         <v>14.618</v>
       </c>
-      <c r="AD121" s="11" t="str">
+      <c r="AD121" s="10" t="str">
         <f t="shared" si="9"/>
         <v>14.323</v>
       </c>
-      <c r="AE121" s="11" t="str">
+      <c r="AE121" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.295</v>
       </c>
@@ -15218,19 +15200,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_planning_8</v>
       </c>
-      <c r="AB122" s="11" t="str">
+      <c r="AB122" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.242</v>
       </c>
-      <c r="AC122" s="11" t="str">
+      <c r="AC122" s="10" t="str">
         <f t="shared" si="8"/>
         <v>13.818</v>
       </c>
-      <c r="AD122" s="11" t="str">
+      <c r="AD122" s="10" t="str">
         <f t="shared" si="9"/>
         <v>13.576</v>
       </c>
-      <c r="AE122" s="11" t="str">
+      <c r="AE122" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.242</v>
       </c>
@@ -15298,19 +15280,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_execution_4</v>
       </c>
-      <c r="AB123" s="11" t="str">
+      <c r="AB123" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.044</v>
       </c>
-      <c r="AC123" s="11" t="str">
+      <c r="AC123" s="10" t="str">
         <f t="shared" si="8"/>
         <v>13.795</v>
       </c>
-      <c r="AD123" s="11" t="str">
+      <c r="AD123" s="10" t="str">
         <f t="shared" si="9"/>
         <v>13.750</v>
       </c>
-      <c r="AE123" s="11" t="str">
+      <c r="AE123" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.044</v>
       </c>
@@ -15378,19 +15360,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_execution_5</v>
       </c>
-      <c r="AB124" s="11" t="str">
+      <c r="AB124" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.109</v>
       </c>
-      <c r="AC124" s="11" t="str">
+      <c r="AC124" s="10" t="str">
         <f t="shared" si="8"/>
         <v>13.591</v>
       </c>
-      <c r="AD124" s="11" t="str">
+      <c r="AD124" s="10" t="str">
         <f t="shared" si="9"/>
         <v>13.481</v>
       </c>
-      <c r="AE124" s="11" t="str">
+      <c r="AE124" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.109</v>
       </c>
@@ -15458,19 +15440,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_execution_6</v>
       </c>
-      <c r="AB125" s="11" t="str">
+      <c r="AB125" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.051</v>
       </c>
-      <c r="AC125" s="11" t="str">
+      <c r="AC125" s="10" t="str">
         <f t="shared" si="8"/>
         <v>13.890</v>
       </c>
-      <c r="AD125" s="11" t="str">
+      <c r="AD125" s="10" t="str">
         <f t="shared" si="9"/>
         <v>13.839</v>
       </c>
-      <c r="AE125" s="11" t="str">
+      <c r="AE125" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.051</v>
       </c>
@@ -15538,19 +15520,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_execution_7</v>
       </c>
-      <c r="AB126" s="11" t="str">
+      <c r="AB126" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.270</v>
       </c>
-      <c r="AC126" s="11" t="str">
+      <c r="AC126" s="10" t="str">
         <f t="shared" si="8"/>
         <v>14.427</v>
       </c>
-      <c r="AD126" s="11" t="str">
+      <c r="AD126" s="10" t="str">
         <f t="shared" si="9"/>
         <v>14.157</v>
       </c>
-      <c r="AE126" s="11" t="str">
+      <c r="AE126" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.270</v>
       </c>
@@ -15618,19 +15600,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_execution_8</v>
       </c>
-      <c r="AB127" s="11" t="str">
+      <c r="AB127" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.530</v>
       </c>
-      <c r="AC127" s="11" t="str">
+      <c r="AC127" s="10" t="str">
         <f t="shared" si="8"/>
         <v>14.167</v>
       </c>
-      <c r="AD127" s="11" t="str">
+      <c r="AD127" s="10" t="str">
         <f t="shared" si="9"/>
         <v>13.637</v>
       </c>
-      <c r="AE127" s="11" t="str">
+      <c r="AE127" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.530</v>
       </c>
@@ -15698,19 +15680,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_resource_4</v>
       </c>
-      <c r="AB128" s="11" t="str">
+      <c r="AB128" s="10" t="str">
         <f t="shared" si="7"/>
         <v>-0.153</v>
       </c>
-      <c r="AC128" s="11" t="str">
+      <c r="AC128" s="10" t="str">
         <f t="shared" si="8"/>
         <v>11.486</v>
       </c>
-      <c r="AD128" s="11" t="str">
+      <c r="AD128" s="10" t="str">
         <f t="shared" si="9"/>
         <v>11.638</v>
       </c>
-      <c r="AE128" s="11" t="str">
+      <c r="AE128" s="10" t="str">
         <f t="shared" si="10"/>
         <v>-0.153</v>
       </c>
@@ -15778,19 +15760,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_resource_5</v>
       </c>
-      <c r="AB129" s="11" t="str">
+      <c r="AB129" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.024</v>
       </c>
-      <c r="AC129" s="11" t="str">
+      <c r="AC129" s="10" t="str">
         <f t="shared" si="8"/>
         <v>11.520</v>
       </c>
-      <c r="AD129" s="11" t="str">
+      <c r="AD129" s="10" t="str">
         <f t="shared" si="9"/>
         <v>11.496</v>
       </c>
-      <c r="AE129" s="11" t="str">
+      <c r="AE129" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.024</v>
       </c>
@@ -15858,19 +15840,19 @@
         <f t="shared" si="6"/>
         <v>mean_test_resource_6</v>
       </c>
-      <c r="AB130" s="11" t="str">
+      <c r="AB130" s="10" t="str">
         <f t="shared" si="7"/>
         <v>0.001</v>
       </c>
-      <c r="AC130" s="11" t="str">
+      <c r="AC130" s="10" t="str">
         <f t="shared" si="8"/>
         <v>11.866</v>
       </c>
-      <c r="AD130" s="11" t="str">
+      <c r="AD130" s="10" t="str">
         <f t="shared" si="9"/>
         <v>11.865</v>
       </c>
-      <c r="AE130" s="11" t="str">
+      <c r="AE130" s="10" t="str">
         <f t="shared" si="10"/>
         <v>0.001</v>
       </c>
@@ -15938,19 +15920,19 @@
         <f t="shared" ref="AA131:AA165" si="12">N131</f>
         <v>mean_test_resource_7</v>
       </c>
-      <c r="AB131" s="11" t="str">
+      <c r="AB131" s="10" t="str">
         <f t="shared" ref="AB131:AB165" si="13">TEXT(B131, "0.000")</f>
         <v>0.009</v>
       </c>
-      <c r="AC131" s="11" t="str">
+      <c r="AC131" s="10" t="str">
         <f t="shared" ref="AC131:AC165" si="14">TEXT(C131, "0.000")</f>
         <v>12.221</v>
       </c>
-      <c r="AD131" s="11" t="str">
+      <c r="AD131" s="10" t="str">
         <f t="shared" ref="AD131:AD165" si="15">TEXT(D131, "0.000")</f>
         <v>12.212</v>
       </c>
-      <c r="AE131" s="11" t="str">
+      <c r="AE131" s="10" t="str">
         <f t="shared" ref="AE131:AE165" si="16">TEXT(B131,"0.000")</f>
         <v>0.009</v>
       </c>
@@ -16018,19 +16000,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_resource_8</v>
       </c>
-      <c r="AB132" s="11" t="str">
+      <c r="AB132" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.095</v>
       </c>
-      <c r="AC132" s="11" t="str">
+      <c r="AC132" s="10" t="str">
         <f t="shared" si="14"/>
         <v>11.747</v>
       </c>
-      <c r="AD132" s="11" t="str">
+      <c r="AD132" s="10" t="str">
         <f t="shared" si="15"/>
         <v>11.652</v>
       </c>
-      <c r="AE132" s="11" t="str">
+      <c r="AE132" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.095</v>
       </c>
@@ -16098,19 +16080,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_ninti_4</v>
       </c>
-      <c r="AB133" s="11" t="str">
+      <c r="AB133" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.095</v>
       </c>
-      <c r="AC133" s="11" t="str">
+      <c r="AC133" s="10" t="str">
         <f t="shared" si="14"/>
         <v>15.539</v>
       </c>
-      <c r="AD133" s="11" t="str">
+      <c r="AD133" s="10" t="str">
         <f t="shared" si="15"/>
         <v>15.445</v>
       </c>
-      <c r="AE133" s="11" t="str">
+      <c r="AE133" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.095</v>
       </c>
@@ -16178,19 +16160,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_ninti_5</v>
       </c>
-      <c r="AB134" s="11" t="str">
+      <c r="AB134" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.222</v>
       </c>
-      <c r="AC134" s="11" t="str">
+      <c r="AC134" s="10" t="str">
         <f t="shared" si="14"/>
         <v>15.395</v>
       </c>
-      <c r="AD134" s="11" t="str">
+      <c r="AD134" s="10" t="str">
         <f t="shared" si="15"/>
         <v>15.173</v>
       </c>
-      <c r="AE134" s="11" t="str">
+      <c r="AE134" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.222</v>
       </c>
@@ -16258,19 +16240,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_ninti_6</v>
       </c>
-      <c r="AB135" s="11" t="str">
+      <c r="AB135" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.110</v>
       </c>
-      <c r="AC135" s="11" t="str">
+      <c r="AC135" s="10" t="str">
         <f t="shared" si="14"/>
         <v>15.493</v>
       </c>
-      <c r="AD135" s="11" t="str">
+      <c r="AD135" s="10" t="str">
         <f t="shared" si="15"/>
         <v>15.382</v>
       </c>
-      <c r="AE135" s="11" t="str">
+      <c r="AE135" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.110</v>
       </c>
@@ -16338,19 +16320,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_ninti_7</v>
       </c>
-      <c r="AB136" s="11" t="str">
+      <c r="AB136" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.258</v>
       </c>
-      <c r="AC136" s="11" t="str">
+      <c r="AC136" s="10" t="str">
         <f t="shared" si="14"/>
         <v>15.513</v>
       </c>
-      <c r="AD136" s="11" t="str">
+      <c r="AD136" s="10" t="str">
         <f t="shared" si="15"/>
         <v>15.254</v>
       </c>
-      <c r="AE136" s="11" t="str">
+      <c r="AE136" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.258</v>
       </c>
@@ -16418,19 +16400,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_ninti_8</v>
       </c>
-      <c r="AB137" s="11" t="str">
+      <c r="AB137" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.195</v>
       </c>
-      <c r="AC137" s="11" t="str">
+      <c r="AC137" s="10" t="str">
         <f t="shared" si="14"/>
         <v>14.537</v>
       </c>
-      <c r="AD137" s="11" t="str">
+      <c r="AD137" s="10" t="str">
         <f t="shared" si="15"/>
         <v>14.342</v>
       </c>
-      <c r="AE137" s="11" t="str">
+      <c r="AE137" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.195</v>
       </c>
@@ -16498,19 +16480,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_effort_4</v>
       </c>
-      <c r="AB138" s="11" t="str">
+      <c r="AB138" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.209</v>
       </c>
-      <c r="AC138" s="11" t="str">
+      <c r="AC138" s="10" t="str">
         <f t="shared" si="14"/>
         <v>16.318</v>
       </c>
-      <c r="AD138" s="11" t="str">
+      <c r="AD138" s="10" t="str">
         <f t="shared" si="15"/>
         <v>16.109</v>
       </c>
-      <c r="AE138" s="11" t="str">
+      <c r="AE138" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.209</v>
       </c>
@@ -16578,19 +16560,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_effort_5</v>
       </c>
-      <c r="AB139" s="11" t="str">
+      <c r="AB139" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.307</v>
       </c>
-      <c r="AC139" s="11" t="str">
+      <c r="AC139" s="10" t="str">
         <f t="shared" si="14"/>
         <v>16.256</v>
       </c>
-      <c r="AD139" s="11" t="str">
+      <c r="AD139" s="10" t="str">
         <f t="shared" si="15"/>
         <v>15.949</v>
       </c>
-      <c r="AE139" s="11" t="str">
+      <c r="AE139" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.307</v>
       </c>
@@ -16658,19 +16640,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_effort_6</v>
       </c>
-      <c r="AB140" s="11" t="str">
+      <c r="AB140" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.368</v>
       </c>
-      <c r="AC140" s="11" t="str">
+      <c r="AC140" s="10" t="str">
         <f t="shared" si="14"/>
         <v>16.069</v>
       </c>
-      <c r="AD140" s="11" t="str">
+      <c r="AD140" s="10" t="str">
         <f t="shared" si="15"/>
         <v>15.701</v>
       </c>
-      <c r="AE140" s="11" t="str">
+      <c r="AE140" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.368</v>
       </c>
@@ -16738,19 +16720,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_effort_7</v>
       </c>
-      <c r="AB141" s="11" t="str">
+      <c r="AB141" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.503</v>
       </c>
-      <c r="AC141" s="11" t="str">
+      <c r="AC141" s="10" t="str">
         <f t="shared" si="14"/>
         <v>16.071</v>
       </c>
-      <c r="AD141" s="11" t="str">
+      <c r="AD141" s="10" t="str">
         <f t="shared" si="15"/>
         <v>15.568</v>
       </c>
-      <c r="AE141" s="11" t="str">
+      <c r="AE141" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.503</v>
       </c>
@@ -16818,19 +16800,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_effort_8</v>
       </c>
-      <c r="AB142" s="11" t="str">
+      <c r="AB142" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.440</v>
       </c>
-      <c r="AC142" s="11" t="str">
+      <c r="AC142" s="10" t="str">
         <f t="shared" si="14"/>
         <v>14.732</v>
       </c>
-      <c r="AD142" s="11" t="str">
+      <c r="AD142" s="10" t="str">
         <f t="shared" si="15"/>
         <v>14.292</v>
       </c>
-      <c r="AE142" s="11" t="str">
+      <c r="AE142" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.440</v>
       </c>
@@ -16898,19 +16880,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_reading_time_in_a_weekdays_4</v>
       </c>
-      <c r="AB143" s="11" t="str">
+      <c r="AB143" s="10" t="str">
         <f t="shared" si="13"/>
         <v>-0.007</v>
       </c>
-      <c r="AC143" s="11" t="str">
+      <c r="AC143" s="10" t="str">
         <f t="shared" si="14"/>
         <v>4.188</v>
       </c>
-      <c r="AD143" s="11" t="str">
+      <c r="AD143" s="10" t="str">
         <f t="shared" si="15"/>
         <v>4.195</v>
       </c>
-      <c r="AE143" s="11" t="str">
+      <c r="AE143" s="10" t="str">
         <f t="shared" si="16"/>
         <v>-0.007</v>
       </c>
@@ -16978,19 +16960,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_reading_time_in_a_weekdays_5</v>
       </c>
-      <c r="AB144" s="11" t="str">
+      <c r="AB144" s="10" t="str">
         <f t="shared" si="13"/>
         <v>-0.212</v>
       </c>
-      <c r="AC144" s="11" t="str">
+      <c r="AC144" s="10" t="str">
         <f t="shared" si="14"/>
         <v>4.269</v>
       </c>
-      <c r="AD144" s="11" t="str">
+      <c r="AD144" s="10" t="str">
         <f t="shared" si="15"/>
         <v>4.481</v>
       </c>
-      <c r="AE144" s="11" t="str">
+      <c r="AE144" s="10" t="str">
         <f t="shared" si="16"/>
         <v>-0.212</v>
       </c>
@@ -17058,19 +17040,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_reading_time_in_a_weekdays_6</v>
       </c>
-      <c r="AB145" s="11" t="str">
+      <c r="AB145" s="10" t="str">
         <f t="shared" si="13"/>
         <v>-0.055</v>
       </c>
-      <c r="AC145" s="11" t="str">
+      <c r="AC145" s="10" t="str">
         <f t="shared" si="14"/>
         <v>4.144</v>
       </c>
-      <c r="AD145" s="11" t="str">
+      <c r="AD145" s="10" t="str">
         <f t="shared" si="15"/>
         <v>4.199</v>
       </c>
-      <c r="AE145" s="11" t="str">
+      <c r="AE145" s="10" t="str">
         <f t="shared" si="16"/>
         <v>-0.055</v>
       </c>
@@ -17138,19 +17120,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_reading_time_in_a_weekdays_7</v>
       </c>
-      <c r="AB146" s="11" t="str">
+      <c r="AB146" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.269</v>
       </c>
-      <c r="AC146" s="11" t="str">
+      <c r="AC146" s="10" t="str">
         <f t="shared" si="14"/>
         <v>4.188</v>
       </c>
-      <c r="AD146" s="11" t="str">
+      <c r="AD146" s="10" t="str">
         <f t="shared" si="15"/>
         <v>3.918</v>
       </c>
-      <c r="AE146" s="11" t="str">
+      <c r="AE146" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.269</v>
       </c>
@@ -17218,19 +17200,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_reading_time_in_a_weekdays_8</v>
       </c>
-      <c r="AB147" s="11" t="str">
+      <c r="AB147" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.255</v>
       </c>
-      <c r="AC147" s="11" t="str">
+      <c r="AC147" s="10" t="str">
         <f t="shared" si="14"/>
         <v>4.048</v>
       </c>
-      <c r="AD147" s="11" t="str">
+      <c r="AD147" s="10" t="str">
         <f t="shared" si="15"/>
         <v>3.793</v>
       </c>
-      <c r="AE147" s="11" t="str">
+      <c r="AE147" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.255</v>
       </c>
@@ -17298,19 +17280,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_smart_phone_gaming_tv_time_4</v>
       </c>
-      <c r="AB148" s="11" t="str">
+      <c r="AB148" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.011</v>
       </c>
-      <c r="AC148" s="11" t="str">
+      <c r="AC148" s="10" t="str">
         <f t="shared" si="14"/>
         <v>4.182</v>
       </c>
-      <c r="AD148" s="11" t="str">
+      <c r="AD148" s="10" t="str">
         <f t="shared" si="15"/>
         <v>4.171</v>
       </c>
-      <c r="AE148" s="11" t="str">
+      <c r="AE148" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.011</v>
       </c>
@@ -17378,19 +17360,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_smart_phone_gaming_tv_time_5</v>
       </c>
-      <c r="AB149" s="11" t="str">
+      <c r="AB149" s="10" t="str">
         <f t="shared" si="13"/>
         <v>-0.088</v>
       </c>
-      <c r="AC149" s="11" t="str">
+      <c r="AC149" s="10" t="str">
         <f t="shared" si="14"/>
         <v>4.480</v>
       </c>
-      <c r="AD149" s="11" t="str">
+      <c r="AD149" s="10" t="str">
         <f t="shared" si="15"/>
         <v>4.568</v>
       </c>
-      <c r="AE149" s="11" t="str">
+      <c r="AE149" s="10" t="str">
         <f t="shared" si="16"/>
         <v>-0.088</v>
       </c>
@@ -17458,19 +17440,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_smart_phone_gaming_tv_time_6</v>
       </c>
-      <c r="AB150" s="11" t="str">
+      <c r="AB150" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.100</v>
       </c>
-      <c r="AC150" s="11" t="str">
+      <c r="AC150" s="10" t="str">
         <f t="shared" si="14"/>
         <v>4.901</v>
       </c>
-      <c r="AD150" s="11" t="str">
+      <c r="AD150" s="10" t="str">
         <f t="shared" si="15"/>
         <v>4.800</v>
       </c>
-      <c r="AE150" s="11" t="str">
+      <c r="AE150" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.100</v>
       </c>
@@ -17538,19 +17520,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_smart_phone_gaming_tv_time_7</v>
       </c>
-      <c r="AB151" s="11" t="str">
+      <c r="AB151" s="10" t="str">
         <f t="shared" si="13"/>
         <v>-0.155</v>
       </c>
-      <c r="AC151" s="11" t="str">
+      <c r="AC151" s="10" t="str">
         <f t="shared" si="14"/>
         <v>5.265</v>
       </c>
-      <c r="AD151" s="11" t="str">
+      <c r="AD151" s="10" t="str">
         <f t="shared" si="15"/>
         <v>5.421</v>
       </c>
-      <c r="AE151" s="11" t="str">
+      <c r="AE151" s="10" t="str">
         <f t="shared" si="16"/>
         <v>-0.155</v>
       </c>
@@ -17618,19 +17600,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_smart_phone_gaming_tv_time_8</v>
       </c>
-      <c r="AB152" s="11" t="str">
+      <c r="AB152" s="10" t="str">
         <f t="shared" si="13"/>
         <v>-0.017</v>
       </c>
-      <c r="AC152" s="11" t="str">
+      <c r="AC152" s="10" t="str">
         <f t="shared" si="14"/>
         <v>5.755</v>
       </c>
-      <c r="AD152" s="11" t="str">
+      <c r="AD152" s="10" t="str">
         <f t="shared" si="15"/>
         <v>5.772</v>
       </c>
-      <c r="AE152" s="11" t="str">
+      <c r="AE152" s="10" t="str">
         <f t="shared" si="16"/>
         <v>-0.017</v>
       </c>
@@ -17698,19 +17680,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_lesson_time_4</v>
       </c>
-      <c r="AB153" s="11" t="str">
+      <c r="AB153" s="10" t="str">
         <f t="shared" si="13"/>
         <v>-0.072</v>
       </c>
-      <c r="AC153" s="11" t="str">
+      <c r="AC153" s="10" t="str">
         <f t="shared" si="14"/>
         <v>2.329</v>
       </c>
-      <c r="AD153" s="11" t="str">
+      <c r="AD153" s="10" t="str">
         <f t="shared" si="15"/>
         <v>2.401</v>
       </c>
-      <c r="AE153" s="11" t="str">
+      <c r="AE153" s="10" t="str">
         <f t="shared" si="16"/>
         <v>-0.072</v>
       </c>
@@ -17778,19 +17760,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_lesson_time_5</v>
       </c>
-      <c r="AB154" s="11" t="str">
+      <c r="AB154" s="10" t="str">
         <f t="shared" si="13"/>
         <v>-0.027</v>
       </c>
-      <c r="AC154" s="11" t="str">
+      <c r="AC154" s="10" t="str">
         <f t="shared" si="14"/>
         <v>2.380</v>
       </c>
-      <c r="AD154" s="11" t="str">
+      <c r="AD154" s="10" t="str">
         <f t="shared" si="15"/>
         <v>2.406</v>
       </c>
-      <c r="AE154" s="11" t="str">
+      <c r="AE154" s="10" t="str">
         <f t="shared" si="16"/>
         <v>-0.027</v>
       </c>
@@ -17858,19 +17840,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_lesson_time_6</v>
       </c>
-      <c r="AB155" s="11" t="str">
+      <c r="AB155" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.060</v>
       </c>
-      <c r="AC155" s="11" t="str">
+      <c r="AC155" s="10" t="str">
         <f t="shared" si="14"/>
         <v>2.325</v>
       </c>
-      <c r="AD155" s="11" t="str">
+      <c r="AD155" s="10" t="str">
         <f t="shared" si="15"/>
         <v>2.265</v>
       </c>
-      <c r="AE155" s="11" t="str">
+      <c r="AE155" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.060</v>
       </c>
@@ -17938,19 +17920,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_lesson_time_7</v>
       </c>
-      <c r="AB156" s="11" t="str">
+      <c r="AB156" s="10" t="str">
         <f t="shared" si="13"/>
         <v>-0.009</v>
       </c>
-      <c r="AC156" s="11" t="str">
+      <c r="AC156" s="10" t="str">
         <f t="shared" si="14"/>
         <v>1.561</v>
       </c>
-      <c r="AD156" s="11" t="str">
+      <c r="AD156" s="10" t="str">
         <f t="shared" si="15"/>
         <v>1.569</v>
       </c>
-      <c r="AE156" s="11" t="str">
+      <c r="AE156" s="10" t="str">
         <f t="shared" si="16"/>
         <v>-0.009</v>
       </c>
@@ -18018,19 +18000,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_lesson_time_8</v>
       </c>
-      <c r="AB157" s="11" t="str">
+      <c r="AB157" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.022</v>
       </c>
-      <c r="AC157" s="11" t="str">
+      <c r="AC157" s="10" t="str">
         <f t="shared" si="14"/>
         <v>1.249</v>
       </c>
-      <c r="AD157" s="11" t="str">
+      <c r="AD157" s="10" t="str">
         <f t="shared" si="15"/>
         <v>1.227</v>
       </c>
-      <c r="AE157" s="11" t="str">
+      <c r="AE157" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.022</v>
       </c>
@@ -18098,19 +18080,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_playing_sport_4</v>
       </c>
-      <c r="AB158" s="11" t="str">
+      <c r="AB158" s="10" t="str">
         <f t="shared" si="13"/>
         <v>-0.061</v>
       </c>
-      <c r="AC158" s="11" t="str">
+      <c r="AC158" s="10" t="str">
         <f t="shared" si="14"/>
         <v>3.685</v>
       </c>
-      <c r="AD158" s="11" t="str">
+      <c r="AD158" s="10" t="str">
         <f t="shared" si="15"/>
         <v>3.746</v>
       </c>
-      <c r="AE158" s="11" t="str">
+      <c r="AE158" s="10" t="str">
         <f t="shared" si="16"/>
         <v>-0.061</v>
       </c>
@@ -18178,19 +18160,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_playing_sport_5</v>
       </c>
-      <c r="AB159" s="11" t="str">
+      <c r="AB159" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.110</v>
       </c>
-      <c r="AC159" s="11" t="str">
+      <c r="AC159" s="10" t="str">
         <f t="shared" si="14"/>
         <v>3.794</v>
       </c>
-      <c r="AD159" s="11" t="str">
+      <c r="AD159" s="10" t="str">
         <f t="shared" si="15"/>
         <v>3.684</v>
       </c>
-      <c r="AE159" s="11" t="str">
+      <c r="AE159" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.110</v>
       </c>
@@ -18258,19 +18240,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_playing_sport_6</v>
       </c>
-      <c r="AB160" s="11" t="str">
+      <c r="AB160" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.294</v>
       </c>
-      <c r="AC160" s="11" t="str">
+      <c r="AC160" s="10" t="str">
         <f t="shared" si="14"/>
         <v>3.688</v>
       </c>
-      <c r="AD160" s="11" t="str">
+      <c r="AD160" s="10" t="str">
         <f t="shared" si="15"/>
         <v>3.394</v>
       </c>
-      <c r="AE160" s="11" t="str">
+      <c r="AE160" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.294</v>
       </c>
@@ -18338,19 +18320,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_playing_sport_7</v>
       </c>
-      <c r="AB161" s="11" t="str">
+      <c r="AB161" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.038</v>
       </c>
-      <c r="AC161" s="11" t="str">
+      <c r="AC161" s="10" t="str">
         <f t="shared" si="14"/>
         <v>3.013</v>
       </c>
-      <c r="AD161" s="11" t="str">
+      <c r="AD161" s="10" t="str">
         <f t="shared" si="15"/>
         <v>2.975</v>
       </c>
-      <c r="AE161" s="11" t="str">
+      <c r="AE161" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.038</v>
       </c>
@@ -18418,19 +18400,19 @@
         <f t="shared" si="12"/>
         <v>mean_test_playing_sport_8</v>
       </c>
-      <c r="AB162" s="11" t="str">
+      <c r="AB162" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.004</v>
       </c>
-      <c r="AC162" s="11" t="str">
+      <c r="AC162" s="10" t="str">
         <f t="shared" si="14"/>
         <v>4.841</v>
       </c>
-      <c r="AD162" s="11" t="str">
+      <c r="AD162" s="10" t="str">
         <f t="shared" si="15"/>
         <v>4.837</v>
       </c>
-      <c r="AE162" s="11" t="str">
+      <c r="AE162" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.004</v>
       </c>
@@ -18444,19 +18426,19 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB163" s="11" t="str">
+      <c r="AB163" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.000</v>
       </c>
-      <c r="AC163" s="11" t="str">
+      <c r="AC163" s="10" t="str">
         <f t="shared" si="14"/>
         <v>0.000</v>
       </c>
-      <c r="AD163" s="11" t="str">
+      <c r="AD163" s="10" t="str">
         <f t="shared" si="15"/>
         <v>0.000</v>
       </c>
-      <c r="AE163" s="11" t="str">
+      <c r="AE163" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.000</v>
       </c>
@@ -18470,19 +18452,19 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB164" s="11" t="str">
+      <c r="AB164" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.000</v>
       </c>
-      <c r="AC164" s="11" t="str">
+      <c r="AC164" s="10" t="str">
         <f t="shared" si="14"/>
         <v>0.000</v>
       </c>
-      <c r="AD164" s="11" t="str">
+      <c r="AD164" s="10" t="str">
         <f t="shared" si="15"/>
         <v>0.000</v>
       </c>
-      <c r="AE164" s="11" t="str">
+      <c r="AE164" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.000</v>
       </c>
@@ -18496,19 +18478,19 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB165" s="11" t="str">
+      <c r="AB165" s="10" t="str">
         <f t="shared" si="13"/>
         <v>0.000</v>
       </c>
-      <c r="AC165" s="11" t="str">
+      <c r="AC165" s="10" t="str">
         <f t="shared" si="14"/>
         <v>0.000</v>
       </c>
-      <c r="AD165" s="11" t="str">
+      <c r="AD165" s="10" t="str">
         <f t="shared" si="15"/>
         <v>0.000</v>
       </c>
-      <c r="AE165" s="11" t="str">
+      <c r="AE165" s="10" t="str">
         <f t="shared" si="16"/>
         <v>0.000</v>
       </c>
